--- a/MIS-311_PhamThuyHuyen_2132309006.xlsx
+++ b/MIS-311_PhamThuyHuyen_2132309006.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\311\MIS-311\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24A87EA-EAF9-4D41-AF26-56187826A4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4BB7AA-3EC6-4E84-8826-404FA28AEB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A8C623B-B399-4797-B7F3-4F15079145AC}"/>
   </bookViews>
@@ -19,17 +19,17 @@
     <sheet name="Scatter" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01_Cost of Living'!$A$1:$E$202</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01_Cost of Living'!$A$1:$E$200</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="42">
   <si>
     <t>Country</t>
   </si>
@@ -672,11 +672,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -684,7 +683,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -757,7 +755,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[01_Cost of Living.xlsx]Privot table!PivotTable2</c:name>
+    <c:name>[MIS-311_PhamThuyHuyen_2132309006.xlsx]Privot table!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1624,501 +1622,495 @@
                   <c:v>4967.29</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>7924.7</c:v>
+                  <c:v>4036.82</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>4036.82</c:v>
+                  <c:v>3588.81</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3588.81</c:v>
+                  <c:v>3116.51</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3116.51</c:v>
+                  <c:v>7471.47</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7471.47</c:v>
+                  <c:v>6729.65</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6729.65</c:v>
+                  <c:v>7737.7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7737.7</c:v>
+                  <c:v>1432.23</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1432.23</c:v>
+                  <c:v>5981.51</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6729.65</c:v>
+                  <c:v>7537.55</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5981.51</c:v>
+                  <c:v>1859.25</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7537.55</c:v>
+                  <c:v>998.72</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1859.25</c:v>
+                  <c:v>6058.4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>998.72</c:v>
+                  <c:v>4808.55</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6058.4</c:v>
+                  <c:v>6813.72</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>4808.55</c:v>
+                  <c:v>1548.29</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6813.72</c:v>
+                  <c:v>6464.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1548.29</c:v>
+                  <c:v>2012.2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6464.5</c:v>
+                  <c:v>1727.42</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2012.2</c:v>
+                  <c:v>1731.99</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1727.42</c:v>
+                  <c:v>6609.31</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1731.99</c:v>
+                  <c:v>5488.98</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>6609.31</c:v>
+                  <c:v>4422.99</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5488.98</c:v>
+                  <c:v>3191.23</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4422.99</c:v>
+                  <c:v>7079</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3191.23</c:v>
+                  <c:v>3443.34</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>7079</c:v>
+                  <c:v>6624.5</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3443.34</c:v>
+                  <c:v>3793.51</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6624.5</c:v>
+                  <c:v>3327.08</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3793.51</c:v>
+                  <c:v>3970.1</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3327.08</c:v>
+                  <c:v>2760.33</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3970.1</c:v>
+                  <c:v>6107.07</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2760.33</c:v>
+                  <c:v>4270.3999999999996</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6107.07</c:v>
+                  <c:v>2241.6</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4270.3999999999996</c:v>
+                  <c:v>7246.81</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2241.6</c:v>
+                  <c:v>3379.18</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7246.81</c:v>
+                  <c:v>4576.6499999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3379.18</c:v>
+                  <c:v>7298.54</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4576.6499999999996</c:v>
+                  <c:v>5181.78</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7298.54</c:v>
+                  <c:v>1376.74</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5181.78</c:v>
+                  <c:v>7548.74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1376.74</c:v>
+                  <c:v>5207.8100000000004</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7548.74</c:v>
+                  <c:v>3011.79</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5207.8100000000004</c:v>
+                  <c:v>1544.54</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3011.79</c:v>
+                  <c:v>6455.19</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1544.54</c:v>
+                  <c:v>5150.55</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6455.19</c:v>
+                  <c:v>4500.96</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5150.55</c:v>
+                  <c:v>7204.19</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4500.96</c:v>
+                  <c:v>6414.48</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7204.19</c:v>
+                  <c:v>1637.56</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6414.48</c:v>
+                  <c:v>2837.92</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1637.56</c:v>
+                  <c:v>2363.67</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2837.92</c:v>
+                  <c:v>6079.6</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2363.67</c:v>
+                  <c:v>751.49</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6079.6</c:v>
+                  <c:v>4774.17</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>751.49</c:v>
+                  <c:v>6218.44</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4774.17</c:v>
+                  <c:v>7075.74</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6218.44</c:v>
+                  <c:v>3065.61</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7075.74</c:v>
+                  <c:v>6659.43</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3065.61</c:v>
+                  <c:v>1329.74</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6659.43</c:v>
+                  <c:v>6848.39</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1329.74</c:v>
+                  <c:v>1456.16</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6848.39</c:v>
+                  <c:v>3479.65</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1456.16</c:v>
+                  <c:v>6479.72</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3479.65</c:v>
+                  <c:v>1624.38</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6479.72</c:v>
+                  <c:v>2219.39</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1624.38</c:v>
+                  <c:v>5916.89</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2219.39</c:v>
+                  <c:v>5900.27</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5916.89</c:v>
+                  <c:v>5308.61</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5900.27</c:v>
+                  <c:v>5704.61</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5308.61</c:v>
+                  <c:v>4570.43</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5704.61</c:v>
+                  <c:v>2388.4899999999998</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4570.43</c:v>
+                  <c:v>3092.72</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2388.4899999999998</c:v>
+                  <c:v>1861.98</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3092.72</c:v>
+                  <c:v>7313.38</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1861.98</c:v>
+                  <c:v>4875.4399999999996</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>7313.38</c:v>
+                  <c:v>3506.39</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4875.4399999999996</c:v>
+                  <c:v>3965.04</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3506.39</c:v>
+                  <c:v>7604.63</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3965.04</c:v>
+                  <c:v>1650.14</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>7604.63</c:v>
+                  <c:v>4896.72</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1650.14</c:v>
+                  <c:v>4294.17</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4896.72</c:v>
+                  <c:v>5085.91</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4294.17</c:v>
+                  <c:v>635.83000000000004</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5085.91</c:v>
+                  <c:v>7040.93</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>635.83000000000004</c:v>
+                  <c:v>7490.89</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>7040.93</c:v>
+                  <c:v>4738.5</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7490.89</c:v>
+                  <c:v>5724.88</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>4738.5</c:v>
+                  <c:v>7418.75</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>5724.88</c:v>
+                  <c:v>5804.29</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>7418.75</c:v>
+                  <c:v>1644.04</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5804.29</c:v>
+                  <c:v>4822.16</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1644.04</c:v>
+                  <c:v>5050.3599999999997</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4822.16</c:v>
+                  <c:v>3680.98</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>5050.3599999999997</c:v>
+                  <c:v>6023.33</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3680.98</c:v>
+                  <c:v>7507.75</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6023.33</c:v>
+                  <c:v>7441.76</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>7507.75</c:v>
+                  <c:v>3881.3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>7441.76</c:v>
+                  <c:v>1349.29</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3881.3</c:v>
+                  <c:v>7886.31</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1349.29</c:v>
+                  <c:v>6791.74</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>7886.31</c:v>
+                  <c:v>1434.97</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>6791.74</c:v>
+                  <c:v>7406.31</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1434.97</c:v>
+                  <c:v>7024.22</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>7406.31</c:v>
+                  <c:v>4391.29</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7024.22</c:v>
+                  <c:v>4934.57</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>4391.29</c:v>
+                  <c:v>3492.52</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>4934.57</c:v>
+                  <c:v>910.71</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3492.52</c:v>
+                  <c:v>3013.98</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>910.71</c:v>
+                  <c:v>6521.4</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3013.98</c:v>
+                  <c:v>534.74</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>6521.4</c:v>
+                  <c:v>3001.24</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>534.74</c:v>
+                  <c:v>3486.27</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3001.24</c:v>
+                  <c:v>4530.47</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3486.27</c:v>
+                  <c:v>7398.92</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>4530.47</c:v>
+                  <c:v>3097.59</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>7398.92</c:v>
+                  <c:v>3102.15</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3097.59</c:v>
+                  <c:v>6031.26</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3102.15</c:v>
+                  <c:v>3891.63</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>6031.26</c:v>
+                  <c:v>2184.54</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3891.63</c:v>
+                  <c:v>3893.3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>2184.54</c:v>
+                  <c:v>1556.43</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3893.3</c:v>
+                  <c:v>1822.9</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1556.43</c:v>
+                  <c:v>4237.76</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1822.9</c:v>
+                  <c:v>4266.46</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>4237.76</c:v>
+                  <c:v>7361.34</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>4270.3999999999996</c:v>
+                  <c:v>3217.95</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>7361.34</c:v>
+                  <c:v>4854.41</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>3217.95</c:v>
+                  <c:v>5241.9799999999996</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>4854.41</c:v>
+                  <c:v>598.21</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>5241.9799999999996</c:v>
+                  <c:v>5476.53</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>598.21</c:v>
+                  <c:v>1835.27</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>5476.53</c:v>
+                  <c:v>7708.03</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1835.27</c:v>
+                  <c:v>1614.97</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>7708.03</c:v>
+                  <c:v>3609.68</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1614.97</c:v>
+                  <c:v>1140.1199999999999</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3609.68</c:v>
+                  <c:v>7976.56</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1140.1199999999999</c:v>
+                  <c:v>4266.46</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>7976.56</c:v>
+                  <c:v>4965.3900000000003</c:v>
                 </c:pt>
                 <c:pt idx="173">
+                  <c:v>1003.07</c:v>
+                </c:pt>
+                <c:pt idx="174">
                   <c:v>4266.46</c:v>
                 </c:pt>
-                <c:pt idx="174">
-                  <c:v>4965.3900000000003</c:v>
-                </c:pt>
                 <c:pt idx="175">
-                  <c:v>1003.07</c:v>
+                  <c:v>2074.29</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>4270.3999999999996</c:v>
+                  <c:v>7235.41</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2074.29</c:v>
+                  <c:v>2038.55</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>7235.41</c:v>
+                  <c:v>1930.16</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2038.55</c:v>
+                  <c:v>774.12</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1930.16</c:v>
+                  <c:v>4040.5</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>774.12</c:v>
+                  <c:v>4736.3100000000004</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>4040.5</c:v>
+                  <c:v>992.81</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4736.3100000000004</c:v>
+                  <c:v>6316.46</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>992.81</c:v>
+                  <c:v>3899.67</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>6316.46</c:v>
+                  <c:v>4432.93</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3899.67</c:v>
+                  <c:v>3805.72</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>4432.93</c:v>
+                  <c:v>3505.72</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3805.72</c:v>
+                  <c:v>4697.3</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3505.72</c:v>
+                  <c:v>1664.3</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>4697.3</c:v>
+                  <c:v>1864.46</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1664.3</c:v>
+                  <c:v>6963.39</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1864.46</c:v>
+                  <c:v>7595.87</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>6963.39</c:v>
+                  <c:v>3299.82</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>7595.87</c:v>
+                  <c:v>2530.59</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>3299.82</c:v>
+                  <c:v>5330</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2530.59</c:v>
+                  <c:v>3565.51</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>5330</c:v>
+                  <c:v>690.4</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3565.51</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>690.4</c:v>
-                </c:pt>
-                <c:pt idx="200">
                   <c:v>1671.14</c:v>
                 </c:pt>
               </c:numCache>
@@ -2236,501 +2228,495 @@
                   <c:v>3379.15</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5484.69</c:v>
+                  <c:v>1479.92</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1479.92</c:v>
+                  <c:v>5645.74</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5645.74</c:v>
+                  <c:v>4978.3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4978.3</c:v>
+                  <c:v>1857.08</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1857.08</c:v>
+                  <c:v>943.71</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>943.71</c:v>
+                  <c:v>4891.3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4891.3</c:v>
+                  <c:v>4719.7700000000004</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4719.7700000000004</c:v>
+                  <c:v>2203.5100000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>943.71</c:v>
+                  <c:v>6675.7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2203.5100000000002</c:v>
+                  <c:v>1396.98</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6675.7</c:v>
+                  <c:v>3253.41</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1396.98</c:v>
+                  <c:v>6627.87</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3253.41</c:v>
+                  <c:v>3170.2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6627.87</c:v>
+                  <c:v>4614.2700000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3170.2</c:v>
+                  <c:v>3024.12</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4614.2700000000004</c:v>
+                  <c:v>2209.8200000000002</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3024.12</c:v>
+                  <c:v>6894.25</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2209.8200000000002</c:v>
+                  <c:v>3101.6</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6894.25</c:v>
+                  <c:v>6301.05</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3101.6</c:v>
+                  <c:v>1917.7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>6301.05</c:v>
+                  <c:v>1806.49</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1917.7</c:v>
+                  <c:v>605.48</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1806.49</c:v>
+                  <c:v>4701</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>605.48</c:v>
+                  <c:v>2832.27</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4701</c:v>
+                  <c:v>6104.76</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2832.27</c:v>
+                  <c:v>3523.19</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6104.76</c:v>
+                  <c:v>6790.08</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3523.19</c:v>
+                  <c:v>1624.47</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6790.08</c:v>
+                  <c:v>6132.91</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1624.47</c:v>
+                  <c:v>5525.54</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6132.91</c:v>
+                  <c:v>5488.08</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5525.54</c:v>
+                  <c:v>5975.57</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5488.08</c:v>
+                  <c:v>5422.76</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5975.57</c:v>
+                  <c:v>4533.05</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5422.76</c:v>
+                  <c:v>1266.22</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>4533.05</c:v>
+                  <c:v>614.66999999999996</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1266.22</c:v>
+                  <c:v>6477.6</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>614.66999999999996</c:v>
+                  <c:v>4469.8900000000003</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6477.6</c:v>
+                  <c:v>5657.15</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>4469.8900000000003</c:v>
+                  <c:v>3578.05</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5657.15</c:v>
+                  <c:v>1174.23</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3578.05</c:v>
+                  <c:v>1226.23</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1174.23</c:v>
+                  <c:v>4924.7299999999996</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1226.23</c:v>
+                  <c:v>3240.02</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4924.7299999999996</c:v>
+                  <c:v>1723.46</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3240.02</c:v>
+                  <c:v>3644.52</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1723.46</c:v>
+                  <c:v>823.78</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3644.52</c:v>
+                  <c:v>4241.01</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>823.78</c:v>
+                  <c:v>2175.36</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>4241.01</c:v>
+                  <c:v>5663.89</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2175.36</c:v>
+                  <c:v>2448.39</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5663.89</c:v>
+                  <c:v>3404.45</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2448.39</c:v>
+                  <c:v>476.7</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3404.45</c:v>
+                  <c:v>878.15</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>476.7</c:v>
+                  <c:v>2990.46</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>878.15</c:v>
+                  <c:v>3567.6</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2990.46</c:v>
+                  <c:v>4360.1400000000003</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3567.6</c:v>
+                  <c:v>2324.9699999999998</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4360.1400000000003</c:v>
+                  <c:v>4986.88</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2324.9699999999998</c:v>
+                  <c:v>6076.81</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4986.88</c:v>
+                  <c:v>5547.02</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6076.81</c:v>
+                  <c:v>661.48</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>5547.02</c:v>
+                  <c:v>3571.35</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>661.48</c:v>
+                  <c:v>1092.54</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3571.35</c:v>
+                  <c:v>1997.5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1092.54</c:v>
+                  <c:v>6911.97</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1997.5</c:v>
+                  <c:v>1340.47</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6911.97</c:v>
+                  <c:v>3692.66</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1340.47</c:v>
+                  <c:v>4479.83</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3692.66</c:v>
+                  <c:v>5036.2700000000004</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4479.83</c:v>
+                  <c:v>4093.68</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5036.2700000000004</c:v>
+                  <c:v>464.49</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4093.68</c:v>
+                  <c:v>2554.64</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>464.49</c:v>
+                  <c:v>3816.9</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2554.64</c:v>
+                  <c:v>979.92</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3816.9</c:v>
+                  <c:v>2714.14</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>979.92</c:v>
+                  <c:v>619.14</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2714.14</c:v>
+                  <c:v>918.62</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>619.14</c:v>
+                  <c:v>3019.69</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>918.62</c:v>
+                  <c:v>1275.92</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3019.69</c:v>
+                  <c:v>4145.7700000000004</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1275.92</c:v>
+                  <c:v>4950.47</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4145.7700000000004</c:v>
+                  <c:v>5683.87</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4950.47</c:v>
+                  <c:v>1720.99</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5683.87</c:v>
+                  <c:v>1505.39</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1720.99</c:v>
+                  <c:v>1090.1500000000001</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1505.39</c:v>
+                  <c:v>4600.4399999999996</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1090.1500000000001</c:v>
+                  <c:v>5062.74</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>4600.4399999999996</c:v>
+                  <c:v>608.47</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>5062.74</c:v>
+                  <c:v>6579</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>608.47</c:v>
+                  <c:v>743.01</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>6579</c:v>
+                  <c:v>3972.56</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>743.01</c:v>
+                  <c:v>5079.8</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3972.56</c:v>
+                  <c:v>6148.4</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5079.8</c:v>
+                  <c:v>5112.97</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>6148.4</c:v>
+                  <c:v>5691.41</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>5112.97</c:v>
+                  <c:v>2640.37</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5691.41</c:v>
+                  <c:v>5777.85</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2640.37</c:v>
+                  <c:v>928.76</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>5777.85</c:v>
+                  <c:v>6305.79</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>928.76</c:v>
+                  <c:v>4014.11</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>6305.79</c:v>
+                  <c:v>5794.17</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>4014.11</c:v>
+                  <c:v>3385.3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>5794.17</c:v>
+                  <c:v>4647.6099999999997</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3385.3</c:v>
+                  <c:v>3874.26</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>4647.6099999999997</c:v>
+                  <c:v>5228.49</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3874.26</c:v>
+                  <c:v>938.76</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>5228.49</c:v>
+                  <c:v>798.32</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>938.76</c:v>
+                  <c:v>2030.88</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>798.32</c:v>
+                  <c:v>1452.99</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>2030.88</c:v>
+                  <c:v>6153.77</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>1452.99</c:v>
+                  <c:v>1846.81</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>6153.77</c:v>
+                  <c:v>6840.71</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>1846.81</c:v>
+                  <c:v>2623.51</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>6840.71</c:v>
+                  <c:v>1601.98</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>2623.51</c:v>
+                  <c:v>5612.01</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>1601.98</c:v>
+                  <c:v>4747.47</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>5612.01</c:v>
+                  <c:v>3688.09</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>4747.47</c:v>
+                  <c:v>4065.4</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3688.09</c:v>
+                  <c:v>5146.7299999999996</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>4065.4</c:v>
+                  <c:v>1907.8</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>5146.7299999999996</c:v>
+                  <c:v>6975.8</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1907.8</c:v>
+                  <c:v>6833.63</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>6975.8</c:v>
+                  <c:v>4692.1499999999996</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>6833.63</c:v>
+                  <c:v>1716.98</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>4692.1499999999996</c:v>
+                  <c:v>4889.51</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1716.98</c:v>
+                  <c:v>876.51</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>4889.51</c:v>
+                  <c:v>602.30999999999995</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>876.51</c:v>
+                  <c:v>2100.71</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>602.30999999999995</c:v>
+                  <c:v>3453.31</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2100.71</c:v>
+                  <c:v>6130.6</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3453.31</c:v>
+                  <c:v>5199.32</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>6130.6</c:v>
+                  <c:v>5301.86</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>5199.32</c:v>
+                  <c:v>3208.26</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>5301.86</c:v>
+                  <c:v>2683.17</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3208.26</c:v>
+                  <c:v>2848.86</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2683.17</c:v>
+                  <c:v>6918.49</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2848.86</c:v>
+                  <c:v>664.72</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>6918.49</c:v>
+                  <c:v>6122.41</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>664.72</c:v>
+                  <c:v>4219.26</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>6122.41</c:v>
+                  <c:v>3294.86</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>4219.26</c:v>
+                  <c:v>5186.7</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>3294.86</c:v>
+                  <c:v>3612.02</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>5186.7</c:v>
+                  <c:v>6164.59</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>3612.02</c:v>
+                  <c:v>6344.63</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>6164.59</c:v>
+                  <c:v>3183.36</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>6344.63</c:v>
+                  <c:v>2227.06</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3183.36</c:v>
+                  <c:v>4309.51</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2227.06</c:v>
+                  <c:v>6421.6</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>4309.51</c:v>
+                  <c:v>1790.37</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>6421.6</c:v>
+                  <c:v>4511.58</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1790.37</c:v>
+                  <c:v>4568.3</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>4511.58</c:v>
+                  <c:v>5238.55</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>4568.3</c:v>
+                  <c:v>1268.3499999999999</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>5238.55</c:v>
+                  <c:v>5124.4399999999996</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1268.3499999999999</c:v>
+                  <c:v>6399.61</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>5124.4399999999996</c:v>
+                  <c:v>1585.91</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>6399.61</c:v>
+                  <c:v>1967.79</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1585.91</c:v>
+                  <c:v>6811.21</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1967.79</c:v>
+                  <c:v>1594.45</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>6811.21</c:v>
+                  <c:v>6038.94</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1594.45</c:v>
+                  <c:v>3649.03</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>6038.94</c:v>
+                  <c:v>2031.73</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>3649.03</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>2031.73</c:v>
-                </c:pt>
-                <c:pt idx="200">
                   <c:v>6146.95</c:v>
                 </c:pt>
               </c:numCache>
@@ -5900,7 +5886,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56E77877-635D-4F85-9719-BB98481F8FAD}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56E77877-635D-4F85-9719-BB98481F8FAD}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -6529,10 +6515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B085B-3A2F-48B8-98A7-3DB0C05C4D54}">
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection sqref="A1:E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6982,7 +6968,7 @@
       <c r="D26">
         <v>562.27</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7161,13 +7147,13 @@
         <v>15</v>
       </c>
       <c r="B37">
-        <v>2022</v>
+        <v>2002</v>
       </c>
       <c r="C37">
-        <v>7924.7</v>
+        <v>4036.82</v>
       </c>
       <c r="D37">
-        <v>5484.69</v>
+        <v>1479.92</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -7175,19 +7161,19 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C38">
-        <v>4036.82</v>
+        <v>3588.81</v>
       </c>
       <c r="D38">
-        <v>1479.92</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
+        <v>5645.74</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -7198,132 +7184,132 @@
         <v>2000</v>
       </c>
       <c r="C39">
-        <v>3588.81</v>
+        <v>3116.51</v>
       </c>
       <c r="D39">
-        <v>5645.74</v>
-      </c>
-      <c r="E39" s="4" t="s">
+        <v>4978.3</v>
+      </c>
+      <c r="E39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>2000</v>
+        <v>2018</v>
       </c>
       <c r="C40">
-        <v>3116.51</v>
+        <v>7471.47</v>
       </c>
       <c r="D40">
-        <v>4978.3</v>
+        <v>1857.08</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B41">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="C41">
-        <v>7471.47</v>
+        <v>6729.65</v>
       </c>
       <c r="D41">
-        <v>1857.08</v>
+        <v>943.71</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="C42">
-        <v>6729.65</v>
+        <v>7737.7</v>
       </c>
       <c r="D42">
-        <v>943.71</v>
+        <v>4891.3</v>
       </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C43">
-        <v>7737.7</v>
+        <v>1432.23</v>
       </c>
       <c r="D43">
-        <v>4891.3</v>
+        <v>4719.7700000000004</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="C44">
-        <v>1432.23</v>
+        <v>5981.51</v>
       </c>
       <c r="D44">
-        <v>4719.7700000000004</v>
+        <v>2203.5100000000002</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B45">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="C45">
-        <v>6729.65</v>
+        <v>7537.55</v>
       </c>
       <c r="D45">
-        <v>943.71</v>
+        <v>6675.7</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="C46">
-        <v>5981.51</v>
+        <v>1859.25</v>
       </c>
       <c r="D46">
-        <v>2203.5100000000002</v>
+        <v>1396.98</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -7331,13 +7317,13 @@
         <v>16</v>
       </c>
       <c r="B47">
-        <v>2000</v>
+        <v>2007</v>
       </c>
       <c r="C47">
-        <v>7537.55</v>
+        <v>998.72</v>
       </c>
       <c r="D47">
-        <v>6675.7</v>
+        <v>3253.41</v>
       </c>
       <c r="E47" t="s">
         <v>8</v>
@@ -7345,84 +7331,84 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="C48">
-        <v>1859.25</v>
+        <v>6058.4</v>
       </c>
       <c r="D48">
-        <v>1396.98</v>
+        <v>6627.87</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="C49">
-        <v>998.72</v>
+        <v>4808.55</v>
       </c>
       <c r="D49">
-        <v>3253.41</v>
+        <v>3170.2</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C50">
-        <v>6058.4</v>
+        <v>6813.72</v>
       </c>
       <c r="D50">
-        <v>6627.87</v>
+        <v>4614.2700000000004</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C51">
-        <v>4808.55</v>
+        <v>1548.29</v>
       </c>
       <c r="D51">
-        <v>3170.2</v>
+        <v>3024.12</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B52">
         <v>2011</v>
       </c>
       <c r="C52">
-        <v>6813.72</v>
+        <v>6464.5</v>
       </c>
       <c r="D52">
-        <v>4614.2700000000004</v>
+        <v>2209.8200000000002</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -7430,33 +7416,33 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C53">
-        <v>1548.29</v>
+        <v>2012.2</v>
       </c>
       <c r="D53">
-        <v>3024.12</v>
+        <v>6894.25</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B54">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C54">
-        <v>6464.5</v>
+        <v>1727.42</v>
       </c>
       <c r="D54">
-        <v>2209.8200000000002</v>
+        <v>3101.6</v>
       </c>
       <c r="E54" t="s">
         <v>10</v>
@@ -7464,33 +7450,33 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B55">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C55">
-        <v>2012.2</v>
+        <v>1731.99</v>
       </c>
       <c r="D55">
-        <v>6894.25</v>
+        <v>6301.05</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>2001</v>
+        <v>2017</v>
       </c>
       <c r="C56">
-        <v>1727.42</v>
+        <v>6609.31</v>
       </c>
       <c r="D56">
-        <v>3101.6</v>
+        <v>1917.7</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -7498,33 +7484,33 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="C57">
-        <v>1731.99</v>
+        <v>5488.98</v>
       </c>
       <c r="D57">
-        <v>6301.05</v>
+        <v>1806.49</v>
       </c>
       <c r="E57" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="C58">
-        <v>6609.31</v>
+        <v>4422.99</v>
       </c>
       <c r="D58">
-        <v>1917.7</v>
+        <v>605.48</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
@@ -7535,13 +7521,13 @@
         <v>15</v>
       </c>
       <c r="B59">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="C59">
-        <v>5488.98</v>
+        <v>3191.23</v>
       </c>
       <c r="D59">
-        <v>1806.49</v>
+        <v>4701</v>
       </c>
       <c r="E59" t="s">
         <v>8</v>
@@ -7549,104 +7535,104 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="C60">
-        <v>4422.99</v>
+        <v>7079</v>
       </c>
       <c r="D60">
-        <v>605.48</v>
+        <v>2832.27</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B61">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="C61">
-        <v>3191.23</v>
+        <v>3443.34</v>
       </c>
       <c r="D61">
-        <v>4701</v>
+        <v>6104.76</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B62">
-        <v>2007</v>
+        <v>2001</v>
       </c>
       <c r="C62">
-        <v>7079</v>
+        <v>6624.5</v>
       </c>
       <c r="D62">
-        <v>2832.27</v>
+        <v>3523.19</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B63">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="C63">
-        <v>3443.34</v>
+        <v>3793.51</v>
       </c>
       <c r="D63">
-        <v>6104.76</v>
+        <v>6790.08</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B64">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="C64">
-        <v>6624.5</v>
+        <v>3327.08</v>
       </c>
       <c r="D64">
-        <v>3523.19</v>
+        <v>1624.47</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="C65">
-        <v>3793.51</v>
+        <v>3970.1</v>
       </c>
       <c r="D65">
-        <v>6790.08</v>
+        <v>6132.91</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -7654,13 +7640,13 @@
         <v>20</v>
       </c>
       <c r="B66">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="C66">
-        <v>3327.08</v>
+        <v>2760.33</v>
       </c>
       <c r="D66">
-        <v>1624.47</v>
+        <v>5525.54</v>
       </c>
       <c r="E66" t="s">
         <v>18</v>
@@ -7668,67 +7654,67 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="C67">
-        <v>3970.1</v>
+        <v>6107.07</v>
       </c>
       <c r="D67">
-        <v>6132.91</v>
+        <v>5488.08</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="C68">
-        <v>2760.33</v>
+        <v>4270.3999999999996</v>
       </c>
       <c r="D68">
-        <v>5525.54</v>
+        <v>5975.57</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B69">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="C69">
-        <v>6107.07</v>
+        <v>2241.6</v>
       </c>
       <c r="D69">
-        <v>5488.08</v>
+        <v>5422.76</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="C70">
-        <v>4270.3999999999996</v>
+        <v>7246.81</v>
       </c>
       <c r="D70">
-        <v>5975.57</v>
+        <v>4533.05</v>
       </c>
       <c r="E70" t="s">
         <v>8</v>
@@ -7736,376 +7722,376 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="C71">
-        <v>2241.6</v>
+        <v>3379.18</v>
       </c>
       <c r="D71">
-        <v>5422.76</v>
+        <v>1266.22</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>2010</v>
+        <v>2003</v>
       </c>
       <c r="C72">
-        <v>7246.81</v>
+        <v>4576.6499999999996</v>
       </c>
       <c r="D72">
-        <v>4533.05</v>
+        <v>614.66999999999996</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B73">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C73">
-        <v>3379.18</v>
+        <v>7298.54</v>
       </c>
       <c r="D73">
-        <v>1266.22</v>
+        <v>6477.6</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B74">
         <v>2003</v>
       </c>
       <c r="C74">
-        <v>4576.6499999999996</v>
+        <v>5181.78</v>
       </c>
       <c r="D74">
-        <v>614.66999999999996</v>
+        <v>4469.8900000000003</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C75">
-        <v>7298.54</v>
+        <v>1376.74</v>
       </c>
       <c r="D75">
-        <v>6477.6</v>
+        <v>5657.15</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C76">
-        <v>5181.78</v>
+        <v>7548.74</v>
       </c>
       <c r="D76">
-        <v>4469.8900000000003</v>
+        <v>3578.05</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B77">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C77">
-        <v>1376.74</v>
+        <v>5207.8100000000004</v>
       </c>
       <c r="D77">
-        <v>5657.15</v>
+        <v>1174.23</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B78">
-        <v>2004</v>
+        <v>2023</v>
       </c>
       <c r="C78">
-        <v>7548.74</v>
+        <v>3011.79</v>
       </c>
       <c r="D78">
-        <v>3578.05</v>
+        <v>1226.23</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B79">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="C79">
-        <v>5207.8100000000004</v>
+        <v>1544.54</v>
       </c>
       <c r="D79">
-        <v>1174.23</v>
+        <v>4924.7299999999996</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B80">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="C80">
-        <v>3011.79</v>
+        <v>6455.19</v>
       </c>
       <c r="D80">
-        <v>1226.23</v>
+        <v>3240.02</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B81">
         <v>2002</v>
       </c>
       <c r="C81">
-        <v>1544.54</v>
+        <v>5150.55</v>
       </c>
       <c r="D81">
-        <v>4924.7299999999996</v>
+        <v>1723.46</v>
       </c>
       <c r="E81" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B82">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C82">
-        <v>6455.19</v>
+        <v>4500.96</v>
       </c>
       <c r="D82">
-        <v>3240.02</v>
+        <v>3644.52</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B83">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C83">
-        <v>5150.55</v>
+        <v>7204.19</v>
       </c>
       <c r="D83">
-        <v>1723.46</v>
+        <v>823.78</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B84">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C84">
-        <v>4500.96</v>
+        <v>6414.48</v>
       </c>
       <c r="D84">
-        <v>3644.52</v>
+        <v>4241.01</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B85">
-        <v>2003</v>
+        <v>2016</v>
       </c>
       <c r="C85">
-        <v>7204.19</v>
+        <v>1637.56</v>
       </c>
       <c r="D85">
-        <v>823.78</v>
+        <v>2175.36</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B86">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C86">
-        <v>6414.48</v>
+        <v>2837.92</v>
       </c>
       <c r="D86">
-        <v>4241.01</v>
+        <v>5663.89</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B87">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="C87">
-        <v>1637.56</v>
+        <v>2363.67</v>
       </c>
       <c r="D87">
-        <v>2175.36</v>
+        <v>2448.39</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B88">
-        <v>2006</v>
+        <v>2022</v>
       </c>
       <c r="C88">
-        <v>2837.92</v>
+        <v>6079.6</v>
       </c>
       <c r="D88">
-        <v>5663.89</v>
+        <v>3404.45</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B89">
-        <v>2023</v>
+        <v>2004</v>
       </c>
       <c r="C89">
-        <v>2363.67</v>
+        <v>751.49</v>
       </c>
       <c r="D89">
-        <v>2448.39</v>
+        <v>476.7</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B90">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C90">
-        <v>6079.6</v>
+        <v>4774.17</v>
       </c>
       <c r="D90">
-        <v>3404.45</v>
+        <v>878.15</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B91">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="C91">
-        <v>751.49</v>
+        <v>6218.44</v>
       </c>
       <c r="D91">
-        <v>476.7</v>
+        <v>2990.46</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B92">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="C92">
-        <v>4774.17</v>
+        <v>7075.74</v>
       </c>
       <c r="D92">
-        <v>878.15</v>
+        <v>3567.6</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -8113,13 +8099,13 @@
         <v>13</v>
       </c>
       <c r="B93">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C93">
-        <v>6218.44</v>
+        <v>3065.61</v>
       </c>
       <c r="D93">
-        <v>2990.46</v>
+        <v>4360.1400000000003</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -8127,87 +8113,87 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B94">
         <v>2022</v>
       </c>
       <c r="C94">
-        <v>7075.74</v>
+        <v>6659.43</v>
       </c>
       <c r="D94">
-        <v>3567.6</v>
+        <v>2324.9699999999998</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B95">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C95">
-        <v>3065.61</v>
+        <v>1329.74</v>
       </c>
       <c r="D95">
-        <v>4360.1400000000003</v>
+        <v>4986.88</v>
       </c>
       <c r="E95" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B96">
-        <v>2022</v>
+        <v>2008</v>
       </c>
       <c r="C96">
-        <v>6659.43</v>
+        <v>6848.39</v>
       </c>
       <c r="D96">
-        <v>2324.9699999999998</v>
+        <v>6076.81</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B97">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="C97">
-        <v>1329.74</v>
+        <v>1456.16</v>
       </c>
       <c r="D97">
-        <v>4986.88</v>
+        <v>5547.02</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B98">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="C98">
-        <v>6848.39</v>
+        <v>3479.65</v>
       </c>
       <c r="D98">
-        <v>6076.81</v>
+        <v>661.48</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -8215,13 +8201,13 @@
         <v>20</v>
       </c>
       <c r="B99">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="C99">
-        <v>1456.16</v>
+        <v>6479.72</v>
       </c>
       <c r="D99">
-        <v>5547.02</v>
+        <v>3571.35</v>
       </c>
       <c r="E99" t="s">
         <v>18</v>
@@ -8229,33 +8215,33 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B100">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C100">
-        <v>3479.65</v>
+        <v>1624.38</v>
       </c>
       <c r="D100">
-        <v>661.48</v>
+        <v>1092.54</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B101">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C101">
-        <v>6479.72</v>
+        <v>2219.39</v>
       </c>
       <c r="D101">
-        <v>3571.35</v>
+        <v>1997.5</v>
       </c>
       <c r="E101" t="s">
         <v>18</v>
@@ -8266,13 +8252,13 @@
         <v>22</v>
       </c>
       <c r="B102">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C102">
-        <v>1624.38</v>
+        <v>5916.89</v>
       </c>
       <c r="D102">
-        <v>1092.54</v>
+        <v>6911.97</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
@@ -8280,19 +8266,19 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B103">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C103">
-        <v>2219.39</v>
+        <v>5900.27</v>
       </c>
       <c r="D103">
-        <v>1997.5</v>
+        <v>1340.47</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -8300,13 +8286,13 @@
         <v>22</v>
       </c>
       <c r="B104">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C104">
-        <v>5916.89</v>
+        <v>5308.61</v>
       </c>
       <c r="D104">
-        <v>6911.97</v>
+        <v>3692.66</v>
       </c>
       <c r="E104" t="s">
         <v>10</v>
@@ -8314,274 +8300,274 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B105">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="C105">
-        <v>5900.27</v>
+        <v>5704.61</v>
       </c>
       <c r="D105">
-        <v>1340.47</v>
+        <v>4479.83</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B106">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="C106">
-        <v>5308.61</v>
+        <v>4570.43</v>
       </c>
       <c r="D106">
-        <v>3692.66</v>
+        <v>5036.2700000000004</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B107">
-        <v>2003</v>
+        <v>2008</v>
       </c>
       <c r="C107">
-        <v>5704.61</v>
+        <v>2388.4899999999998</v>
       </c>
       <c r="D107">
-        <v>4479.83</v>
+        <v>4093.68</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B108">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="C108">
-        <v>4570.43</v>
+        <v>3092.72</v>
       </c>
       <c r="D108">
-        <v>5036.2700000000004</v>
+        <v>464.49</v>
       </c>
       <c r="E108" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B109">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C109">
-        <v>2388.4899999999998</v>
+        <v>1861.98</v>
       </c>
       <c r="D109">
-        <v>4093.68</v>
+        <v>2554.64</v>
       </c>
       <c r="E109" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B110">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="C110">
-        <v>3092.72</v>
+        <v>7313.38</v>
       </c>
       <c r="D110">
-        <v>464.49</v>
+        <v>3816.9</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B111">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C111">
-        <v>1861.98</v>
+        <v>4875.4399999999996</v>
       </c>
       <c r="D111">
-        <v>2554.64</v>
+        <v>979.92</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B112">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="C112">
-        <v>7313.38</v>
+        <v>3506.39</v>
       </c>
       <c r="D112">
-        <v>3816.9</v>
+        <v>2714.14</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B113">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="C113">
-        <v>4875.4399999999996</v>
+        <v>3965.04</v>
       </c>
       <c r="D113">
-        <v>979.92</v>
+        <v>619.14</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B114">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="C114">
-        <v>3506.39</v>
+        <v>7604.63</v>
       </c>
       <c r="D114">
-        <v>2714.14</v>
+        <v>918.62</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B115">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="C115">
-        <v>3965.04</v>
+        <v>1650.14</v>
       </c>
       <c r="D115">
-        <v>619.14</v>
+        <v>3019.69</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B116">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C116">
-        <v>7604.63</v>
+        <v>4896.72</v>
       </c>
       <c r="D116">
-        <v>918.62</v>
+        <v>1275.92</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B117">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C117">
-        <v>1650.14</v>
+        <v>4294.17</v>
       </c>
       <c r="D117">
-        <v>3019.69</v>
+        <v>4145.7700000000004</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B118">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C118">
-        <v>4896.72</v>
+        <v>5085.91</v>
       </c>
       <c r="D118">
-        <v>1275.92</v>
+        <v>4950.47</v>
       </c>
       <c r="E118" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B119">
-        <v>2020</v>
+        <v>2002</v>
       </c>
       <c r="C119">
-        <v>4294.17</v>
+        <v>635.83000000000004</v>
       </c>
       <c r="D119">
-        <v>4145.7700000000004</v>
+        <v>5683.87</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B120">
-        <v>2004</v>
+        <v>2011</v>
       </c>
       <c r="C120">
-        <v>5085.91</v>
+        <v>7040.93</v>
       </c>
       <c r="D120">
-        <v>4950.47</v>
+        <v>1720.99</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -8589,13 +8575,13 @@
         <v>15</v>
       </c>
       <c r="B121">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="C121">
-        <v>635.83000000000004</v>
+        <v>7490.89</v>
       </c>
       <c r="D121">
-        <v>5683.87</v>
+        <v>1505.39</v>
       </c>
       <c r="E121" t="s">
         <v>8</v>
@@ -8603,135 +8589,135 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B122">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="C122">
-        <v>7040.93</v>
+        <v>4738.5</v>
       </c>
       <c r="D122">
-        <v>1720.99</v>
+        <v>1090.1500000000001</v>
       </c>
       <c r="E122" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B123">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="C123">
-        <v>7490.89</v>
+        <v>5724.88</v>
       </c>
       <c r="D123">
-        <v>1505.39</v>
+        <v>4600.4399999999996</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B124">
         <v>2020</v>
       </c>
       <c r="C124">
-        <v>4738.5</v>
+        <v>7418.75</v>
       </c>
       <c r="D124">
-        <v>1090.1500000000001</v>
+        <v>5062.74</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B125">
-        <v>2003</v>
+        <v>2022</v>
       </c>
       <c r="C125">
-        <v>5724.88</v>
+        <v>5804.29</v>
       </c>
       <c r="D125">
-        <v>4600.4399999999996</v>
+        <v>608.47</v>
       </c>
       <c r="E125" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B126">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="C126">
-        <v>7418.75</v>
+        <v>1644.04</v>
       </c>
       <c r="D126">
-        <v>5062.74</v>
+        <v>6579</v>
       </c>
       <c r="E126" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B127">
-        <v>2022</v>
+        <v>2006</v>
       </c>
       <c r="C127">
-        <v>5804.29</v>
+        <v>4822.16</v>
       </c>
       <c r="D127">
-        <v>608.47</v>
+        <v>743.01</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B128">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C128">
-        <v>1644.04</v>
+        <v>5050.3599999999997</v>
       </c>
       <c r="D128">
-        <v>6579</v>
+        <v>3972.56</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B129">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="C129">
-        <v>4822.16</v>
+        <v>3680.98</v>
       </c>
       <c r="D129">
-        <v>743.01</v>
+        <v>5079.8</v>
       </c>
       <c r="E129" t="s">
         <v>18</v>
@@ -8739,135 +8725,135 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B130">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C130">
-        <v>5050.3599999999997</v>
+        <v>6023.33</v>
       </c>
       <c r="D130">
-        <v>3972.56</v>
+        <v>6148.4</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B131">
-        <v>2020</v>
+        <v>2006</v>
       </c>
       <c r="C131">
-        <v>3680.98</v>
+        <v>7507.75</v>
       </c>
       <c r="D131">
-        <v>5079.8</v>
+        <v>5112.97</v>
       </c>
       <c r="E131" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B132">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C132">
-        <v>6023.33</v>
+        <v>7441.76</v>
       </c>
       <c r="D132">
-        <v>6148.4</v>
+        <v>5691.41</v>
       </c>
       <c r="E132" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B133">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="C133">
-        <v>7507.75</v>
+        <v>3881.3</v>
       </c>
       <c r="D133">
-        <v>5112.97</v>
+        <v>2640.37</v>
       </c>
       <c r="E133" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B134">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C134">
-        <v>7441.76</v>
+        <v>1349.29</v>
       </c>
       <c r="D134">
-        <v>5691.41</v>
+        <v>5777.85</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B135">
-        <v>2004</v>
+        <v>2022</v>
       </c>
       <c r="C135">
-        <v>3881.3</v>
+        <v>7886.31</v>
       </c>
       <c r="D135">
-        <v>2640.37</v>
+        <v>928.76</v>
       </c>
       <c r="E135" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B136">
-        <v>2002</v>
+        <v>2010</v>
       </c>
       <c r="C136">
-        <v>1349.29</v>
+        <v>6791.74</v>
       </c>
       <c r="D136">
-        <v>5777.85</v>
+        <v>6305.79</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B137">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="C137">
-        <v>7886.31</v>
+        <v>1434.97</v>
       </c>
       <c r="D137">
-        <v>928.76</v>
+        <v>4014.11</v>
       </c>
       <c r="E137" t="s">
         <v>18</v>
@@ -8875,53 +8861,53 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B138">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="C138">
-        <v>6791.74</v>
+        <v>7406.31</v>
       </c>
       <c r="D138">
-        <v>6305.79</v>
+        <v>5794.17</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B139">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C139">
-        <v>1434.97</v>
+        <v>7024.22</v>
       </c>
       <c r="D139">
-        <v>4014.11</v>
+        <v>3385.3</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B140">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="C140">
-        <v>7406.31</v>
+        <v>4391.29</v>
       </c>
       <c r="D140">
-        <v>5794.17</v>
+        <v>4647.6099999999997</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -8929,13 +8915,13 @@
         <v>16</v>
       </c>
       <c r="B141">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="C141">
-        <v>7024.22</v>
+        <v>4934.57</v>
       </c>
       <c r="D141">
-        <v>3385.3</v>
+        <v>3874.26</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -8943,19 +8929,19 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B142">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="C142">
-        <v>4391.29</v>
+        <v>3492.52</v>
       </c>
       <c r="D142">
-        <v>4647.6099999999997</v>
+        <v>5228.49</v>
       </c>
       <c r="E142" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -8963,13 +8949,13 @@
         <v>16</v>
       </c>
       <c r="B143">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="C143">
-        <v>4934.57</v>
+        <v>910.71</v>
       </c>
       <c r="D143">
-        <v>3874.26</v>
+        <v>938.76</v>
       </c>
       <c r="E143" t="s">
         <v>8</v>
@@ -8977,186 +8963,186 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B144">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="C144">
-        <v>3492.52</v>
+        <v>3013.98</v>
       </c>
       <c r="D144">
-        <v>5228.49</v>
+        <v>798.32</v>
       </c>
       <c r="E144" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B145">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="C145">
-        <v>910.71</v>
+        <v>6521.4</v>
       </c>
       <c r="D145">
-        <v>938.76</v>
+        <v>2030.88</v>
       </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B146">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="C146">
-        <v>3013.98</v>
+        <v>534.74</v>
       </c>
       <c r="D146">
-        <v>798.32</v>
+        <v>1452.99</v>
       </c>
       <c r="E146" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B147">
-        <v>2005</v>
+        <v>2013</v>
       </c>
       <c r="C147">
-        <v>6521.4</v>
+        <v>3001.24</v>
       </c>
       <c r="D147">
-        <v>2030.88</v>
+        <v>6153.77</v>
       </c>
       <c r="E147" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B148">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="C148">
-        <v>534.74</v>
+        <v>3486.27</v>
       </c>
       <c r="D148">
-        <v>1452.99</v>
+        <v>1846.81</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B149">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="C149">
-        <v>3001.24</v>
+        <v>4530.47</v>
       </c>
       <c r="D149">
-        <v>6153.77</v>
+        <v>6840.71</v>
       </c>
       <c r="E149" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B150">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C150">
-        <v>3486.27</v>
+        <v>7398.92</v>
       </c>
       <c r="D150">
-        <v>1846.81</v>
+        <v>2623.51</v>
       </c>
       <c r="E150" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B151">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C151">
-        <v>4530.47</v>
+        <v>3097.59</v>
       </c>
       <c r="D151">
-        <v>6840.71</v>
+        <v>1601.98</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B152">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="C152">
-        <v>7398.92</v>
+        <v>3102.15</v>
       </c>
       <c r="D152">
-        <v>2623.51</v>
+        <v>5612.01</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B153">
-        <v>2008</v>
+        <v>2001</v>
       </c>
       <c r="C153">
-        <v>3097.59</v>
+        <v>6031.26</v>
       </c>
       <c r="D153">
-        <v>1601.98</v>
+        <v>4747.47</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B154">
-        <v>2017</v>
+        <v>2004</v>
       </c>
       <c r="C154">
-        <v>3102.15</v>
+        <v>3891.63</v>
       </c>
       <c r="D154">
-        <v>5612.01</v>
+        <v>3688.09</v>
       </c>
       <c r="E154" t="s">
         <v>8</v>
@@ -9164,289 +9150,289 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B155">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="C155">
-        <v>6031.26</v>
+        <v>2184.54</v>
       </c>
       <c r="D155">
-        <v>4747.47</v>
+        <v>4065.4</v>
       </c>
       <c r="E155" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B156">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C156">
-        <v>3891.63</v>
+        <v>3893.3</v>
       </c>
       <c r="D156">
-        <v>3688.09</v>
+        <v>5146.7299999999996</v>
       </c>
       <c r="E156" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B157">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="C157">
-        <v>2184.54</v>
+        <v>1556.43</v>
       </c>
       <c r="D157">
-        <v>4065.4</v>
+        <v>1907.8</v>
       </c>
       <c r="E157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B158">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C158">
-        <v>3893.3</v>
+        <v>1822.9</v>
       </c>
       <c r="D158">
-        <v>5146.7299999999996</v>
+        <v>6975.8</v>
       </c>
       <c r="E158" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B159">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C159">
-        <v>1556.43</v>
+        <v>4237.76</v>
       </c>
       <c r="D159">
-        <v>1907.8</v>
+        <v>6833.63</v>
       </c>
       <c r="E159" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B160">
-        <v>2007</v>
-      </c>
-      <c r="C160">
-        <v>1822.9</v>
+        <v>2012</v>
+      </c>
+      <c r="C160" s="3">
+        <f>MEDIAN(C1:C159, C161:C175, C177:C200)</f>
+        <v>4266.46</v>
       </c>
       <c r="D160">
-        <v>6975.8</v>
+        <v>4692.1499999999996</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B161">
-        <v>2015</v>
+        <v>2000</v>
       </c>
       <c r="C161">
-        <v>4237.76</v>
+        <v>7361.34</v>
       </c>
       <c r="D161">
-        <v>6833.63</v>
+        <v>1716.98</v>
       </c>
       <c r="E161" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B162">
-        <v>2012</v>
-      </c>
-      <c r="C162" s="4">
-        <f>MEDIAN(C2:C161, C163:C177, C179:C202)</f>
-        <v>4270.3999999999996</v>
+        <v>2021</v>
+      </c>
+      <c r="C162">
+        <v>3217.95</v>
       </c>
       <c r="D162">
-        <v>4692.1499999999996</v>
+        <v>4889.51</v>
       </c>
       <c r="E162" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B163">
-        <v>2000</v>
+        <v>2019</v>
       </c>
       <c r="C163">
-        <v>7361.34</v>
+        <v>4854.41</v>
       </c>
       <c r="D163">
-        <v>1716.98</v>
+        <v>876.51</v>
       </c>
       <c r="E163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B164">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C164">
-        <v>3217.95</v>
+        <v>5241.9799999999996</v>
       </c>
       <c r="D164">
-        <v>4889.51</v>
+        <v>602.30999999999995</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B165">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="C165">
-        <v>4854.41</v>
+        <v>598.21</v>
       </c>
       <c r="D165">
-        <v>876.51</v>
+        <v>2100.71</v>
       </c>
       <c r="E165" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B166">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="C166">
-        <v>5241.9799999999996</v>
+        <v>5476.53</v>
       </c>
       <c r="D166">
-        <v>602.30999999999995</v>
+        <v>3453.31</v>
       </c>
       <c r="E166" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B167">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C167">
-        <v>598.21</v>
+        <v>1835.27</v>
       </c>
       <c r="D167">
-        <v>2100.71</v>
+        <v>6130.6</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B168">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="C168">
-        <v>5476.53</v>
+        <v>7708.03</v>
       </c>
       <c r="D168">
-        <v>3453.31</v>
+        <v>5199.32</v>
       </c>
       <c r="E168" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B169">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C169">
-        <v>1835.27</v>
+        <v>1614.97</v>
       </c>
       <c r="D169">
-        <v>6130.6</v>
+        <v>5301.86</v>
       </c>
       <c r="E169" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B170">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="C170">
-        <v>7708.03</v>
+        <v>3609.68</v>
       </c>
       <c r="D170">
-        <v>5199.32</v>
+        <v>3208.26</v>
       </c>
       <c r="E170" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B171">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="C171">
-        <v>1614.97</v>
+        <v>1140.1199999999999</v>
       </c>
       <c r="D171">
-        <v>5301.86</v>
+        <v>2683.17</v>
       </c>
       <c r="E171" t="s">
         <v>10</v>
@@ -9454,67 +9440,67 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B172">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C172">
-        <v>3609.68</v>
+        <v>7976.56</v>
       </c>
       <c r="D172">
-        <v>3208.26</v>
+        <v>2848.86</v>
       </c>
       <c r="E172" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B173">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C173">
-        <v>1140.1199999999999</v>
+        <v>4266.46</v>
       </c>
       <c r="D173">
-        <v>2683.17</v>
+        <v>6918.49</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B174">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="C174">
-        <v>7976.56</v>
+        <v>4965.3900000000003</v>
       </c>
       <c r="D174">
-        <v>2848.86</v>
+        <v>664.72</v>
       </c>
       <c r="E174" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B175">
-        <v>2006</v>
+        <v>2018</v>
       </c>
       <c r="C175">
-        <v>4266.46</v>
+        <v>1003.07</v>
       </c>
       <c r="D175">
-        <v>6918.49</v>
+        <v>6122.41</v>
       </c>
       <c r="E175" t="s">
         <v>18</v>
@@ -9525,13 +9511,14 @@
         <v>20</v>
       </c>
       <c r="B176">
-        <v>2009</v>
-      </c>
-      <c r="C176">
-        <v>4965.3900000000003</v>
+        <v>2006</v>
+      </c>
+      <c r="C176" s="3">
+        <f>MEDIAN(C1:C175, C177:C200)</f>
+        <v>4266.46</v>
       </c>
       <c r="D176">
-        <v>664.72</v>
+        <v>4219.26</v>
       </c>
       <c r="E176" t="s">
         <v>18</v>
@@ -9542,13 +9529,13 @@
         <v>20</v>
       </c>
       <c r="B177">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="C177">
-        <v>1003.07</v>
+        <v>2074.29</v>
       </c>
       <c r="D177">
-        <v>6122.41</v>
+        <v>3294.86</v>
       </c>
       <c r="E177" t="s">
         <v>18</v>
@@ -9556,51 +9543,50 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B178">
-        <v>2006</v>
-      </c>
-      <c r="C178" s="4">
-        <f>MEDIAN(C2:C177, C179:C202)</f>
-        <v>4270.3999999999996</v>
+        <v>2012</v>
+      </c>
+      <c r="C178">
+        <v>7235.41</v>
       </c>
       <c r="D178">
-        <v>4219.26</v>
+        <v>5186.7</v>
       </c>
       <c r="E178" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B179">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C179">
-        <v>2074.29</v>
+        <v>2038.55</v>
       </c>
       <c r="D179">
-        <v>3294.86</v>
+        <v>3612.02</v>
       </c>
       <c r="E179" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B180">
-        <v>2012</v>
+        <v>2017</v>
       </c>
       <c r="C180">
-        <v>7235.41</v>
+        <v>1930.16</v>
       </c>
       <c r="D180">
-        <v>5186.7</v>
+        <v>6164.59</v>
       </c>
       <c r="E180" t="s">
         <v>8</v>
@@ -9608,138 +9594,138 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B181">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="C181">
-        <v>2038.55</v>
+        <v>774.12</v>
       </c>
       <c r="D181">
-        <v>3612.02</v>
+        <v>6344.63</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B182">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="C182">
-        <v>1930.16</v>
+        <v>4040.5</v>
       </c>
       <c r="D182">
-        <v>6164.59</v>
+        <v>3183.36</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B183">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C183">
-        <v>774.12</v>
+        <v>4736.3100000000004</v>
       </c>
       <c r="D183">
-        <v>6344.63</v>
+        <v>2227.06</v>
       </c>
       <c r="E183" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B184">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C184">
-        <v>4040.5</v>
+        <v>992.81</v>
       </c>
       <c r="D184">
-        <v>3183.36</v>
+        <v>4309.51</v>
       </c>
       <c r="E184" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B185">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="C185">
-        <v>4736.3100000000004</v>
+        <v>6316.46</v>
       </c>
       <c r="D185">
-        <v>2227.06</v>
+        <v>6421.6</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B186">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="C186">
-        <v>992.81</v>
+        <v>3899.67</v>
       </c>
       <c r="D186">
-        <v>4309.51</v>
+        <v>1790.37</v>
       </c>
       <c r="E186" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B187">
-        <v>2000</v>
+        <v>2012</v>
       </c>
       <c r="C187">
-        <v>6316.46</v>
+        <v>4432.93</v>
       </c>
       <c r="D187">
-        <v>6421.6</v>
+        <v>4511.58</v>
       </c>
       <c r="E187" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B188">
-        <v>2002</v>
+        <v>2016</v>
       </c>
       <c r="C188">
-        <v>3899.67</v>
+        <v>3805.72</v>
       </c>
       <c r="D188">
-        <v>1790.37</v>
+        <v>4568.3</v>
       </c>
       <c r="E188" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -9747,13 +9733,13 @@
         <v>22</v>
       </c>
       <c r="B189">
-        <v>2012</v>
+        <v>2023</v>
       </c>
       <c r="C189">
-        <v>4432.93</v>
+        <v>3505.72</v>
       </c>
       <c r="D189">
-        <v>4511.58</v>
+        <v>5238.55</v>
       </c>
       <c r="E189" t="s">
         <v>10</v>
@@ -9761,19 +9747,19 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B190">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="C190">
-        <v>3805.72</v>
+        <v>4697.3</v>
       </c>
       <c r="D190">
-        <v>4568.3</v>
+        <v>1268.3499999999999</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
@@ -9781,13 +9767,13 @@
         <v>22</v>
       </c>
       <c r="B191">
-        <v>2023</v>
+        <v>2005</v>
       </c>
       <c r="C191">
-        <v>3505.72</v>
+        <v>1664.3</v>
       </c>
       <c r="D191">
-        <v>5238.55</v>
+        <v>5124.4399999999996</v>
       </c>
       <c r="E191" t="s">
         <v>10</v>
@@ -9795,16 +9781,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B192">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="C192">
-        <v>4697.3</v>
+        <v>1864.46</v>
       </c>
       <c r="D192">
-        <v>1268.3499999999999</v>
+        <v>6399.61</v>
       </c>
       <c r="E192" t="s">
         <v>8</v>
@@ -9812,176 +9798,142 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B193">
         <v>2005</v>
       </c>
       <c r="C193">
-        <v>1664.3</v>
+        <v>6963.39</v>
       </c>
       <c r="D193">
-        <v>5124.4399999999996</v>
+        <v>1585.91</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B194">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="C194">
-        <v>1864.46</v>
+        <v>7595.87</v>
       </c>
       <c r="D194">
-        <v>6399.61</v>
+        <v>1967.79</v>
       </c>
       <c r="E194" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B195">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="C195">
-        <v>6963.39</v>
+        <v>3299.82</v>
       </c>
       <c r="D195">
-        <v>1585.91</v>
+        <v>6811.21</v>
       </c>
       <c r="E195" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B196">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C196">
-        <v>7595.87</v>
+        <v>2530.59</v>
       </c>
       <c r="D196">
-        <v>1967.79</v>
+        <v>1594.45</v>
       </c>
       <c r="E196" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B197">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C197">
-        <v>3299.82</v>
+        <v>5330</v>
       </c>
       <c r="D197">
-        <v>6811.21</v>
+        <v>6038.94</v>
       </c>
       <c r="E197" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B198">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="C198">
-        <v>2530.59</v>
+        <v>3565.51</v>
       </c>
       <c r="D198">
-        <v>1594.45</v>
+        <v>3649.03</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B199">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C199">
-        <v>5330</v>
+        <v>690.4</v>
       </c>
       <c r="D199">
-        <v>6038.94</v>
+        <v>2031.73</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B200">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C200">
-        <v>3565.51</v>
+        <v>1671.14</v>
       </c>
       <c r="D200">
-        <v>3649.03</v>
+        <v>6146.95</v>
       </c>
       <c r="E200" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
-        <v>21</v>
-      </c>
-      <c r="B201">
-        <v>2015</v>
-      </c>
-      <c r="C201">
-        <v>690.4</v>
-      </c>
-      <c r="D201">
-        <v>2031.73</v>
-      </c>
-      <c r="E201" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
-        <v>16</v>
-      </c>
-      <c r="B202">
-        <v>2021</v>
-      </c>
-      <c r="C202">
-        <v>1671.14</v>
-      </c>
-      <c r="D202">
-        <v>6146.95</v>
-      </c>
-      <c r="E202" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E202" xr:uid="{8E6B085B-3A2F-48B8-98A7-3DB0C05C4D54}"/>
+  <autoFilter ref="A1:E200" xr:uid="{8E6B085B-3A2F-48B8-98A7-3DB0C05C4D54}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10004,214 +9956,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F1" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>4274.9088557213954</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>3700.242437810944</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>150.17447328558475</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
         <v>140.07511131337847</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>4270.3999999999996</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>3688.09</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>4270.3999999999996</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>5484.69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>2129.0906175518139</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>1985.9074496815124</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
         <v>4533026.8577471636</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>3943828.3987005283</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>-1.1770229622353343</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
         <v>-1.2807132903812986</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
         <v>4.4199386440665116E-2</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>-4.2883051241800238E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
         <v>7441.8200000000006</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
         <v>6516.5300000000007</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
         <v>534.74</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>464.49</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>7976.56</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>6981.02</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>859256.68000000052</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>743748.72999999975</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15">
         <v>201</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>296.12847675805602</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>276.21358302395049</v>
       </c>
     </row>
@@ -10250,7 +10196,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -10258,7 +10204,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
@@ -10269,79 +10215,79 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>84513.33</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>71337.13</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>204032.85999999996</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>176813.47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>201476.59</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>159945.74999999997</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>199214.23000000004</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>192197.43000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>99786.579999999973</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>86094.709999999977</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>70233.09</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>57360.239999999991</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10">
         <v>859256.67999999993</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10">
         <v>743748.73</v>
       </c>
     </row>

--- a/MIS-311_PhamThuyHuyen_2132309006.xlsx
+++ b/MIS-311_PhamThuyHuyen_2132309006.xlsx
@@ -8,28 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\311\MIS-311\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4BB7AA-3EC6-4E84-8826-404FA28AEB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA793F77-3E71-43CB-A439-2E25ACFD630F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A8C623B-B399-4797-B7F3-4F15079145AC}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Cost of Living" sheetId="1" r:id="rId1"/>
-    <sheet name="Analysis" sheetId="5" r:id="rId2"/>
-    <sheet name="Privot table" sheetId="10" r:id="rId3"/>
-    <sheet name="Scatter" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01_Cost of Living'!$A$1:$E$200</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="9" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="43">
   <si>
     <t>Country</t>
   </si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>(All)</t>
+  </si>
+  <si>
+    <t>Scatter chart</t>
   </si>
 </sst>
 </file>
@@ -672,17 +672,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -748,6 +750,1648 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The relationship between</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Monthly Income and Cost of Living</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'01_Cost of Living'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cost_of_Living</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'01_Cost of Living'!$C$2:$C$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199"/>
+                <c:pt idx="0">
+                  <c:v>3483.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7771.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6991.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6628.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2434.27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1781.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5514.82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7470.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4675.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4787.1000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2599.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6271.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1902.83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2927.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3690.77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4307.08</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2318.0700000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1361.28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5079.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2664.73</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4859.29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1657.72</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4108.55</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4494.42</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>888.68</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3024.53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1508.11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>975.31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7924.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2917.65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6574.06</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2409.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5611.27</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6201.71</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4967.29</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4036.82</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3588.81</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3116.51</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7471.47</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6729.65</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7737.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1432.23</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5981.51</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7537.55</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1859.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>998.72</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6058.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4808.55</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6813.72</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1548.29</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6464.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2012.2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1727.42</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1731.99</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6609.31</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5488.98</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4422.99</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3191.23</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7079</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3443.34</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6624.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3793.51</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3327.08</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3970.1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2760.33</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6107.07</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4270.3999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2241.6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7246.81</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3379.18</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4576.6499999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7298.54</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5181.78</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1376.74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7548.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5207.8100000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3011.79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1544.54</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6455.19</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5150.55</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4500.96</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7204.19</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6414.48</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1637.56</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2837.92</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2363.67</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6079.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>751.49</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4774.17</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6218.44</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7075.74</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3065.61</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6659.43</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1329.74</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6848.39</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1456.16</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3479.65</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6479.72</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1624.38</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2219.39</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5916.89</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5900.27</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5308.61</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5704.61</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4570.43</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2388.4899999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3092.72</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1861.98</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>7313.38</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4875.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3506.39</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3965.04</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>7604.63</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1650.14</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4896.72</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4294.17</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5085.91</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>635.83000000000004</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>7040.93</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7490.89</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4738.5</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5724.88</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7418.75</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5804.29</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1644.04</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4822.16</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5050.3599999999997</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3680.98</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6023.33</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>7507.75</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>7441.76</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3881.3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1349.29</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>7886.31</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6791.74</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1434.97</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7406.31</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7024.22</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4391.29</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4934.57</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3492.52</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>910.71</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3013.98</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6521.4</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>534.74</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3001.24</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3486.27</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4530.47</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7398.92</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3097.59</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3102.15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6031.26</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3891.63</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2184.54</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3893.3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1556.43</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1822.9</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4237.76</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4266.46</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7361.34</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3217.95</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4854.41</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5241.9799999999996</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>598.21</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5476.53</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1835.27</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7708.03</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1614.97</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3609.68</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1140.1199999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7976.56</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4266.46</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4965.3900000000003</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1003.07</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4266.46</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2074.29</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7235.41</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2038.55</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1930.16</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>774.12</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4040.5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4736.3100000000004</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>992.81</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6316.46</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>3899.67</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4432.93</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3805.72</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3505.72</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>4697.3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1664.3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1864.46</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6963.39</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>7595.87</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3299.82</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>2530.59</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5330</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3565.51</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>690.4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1671.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'01_Cost of Living'!$D$2:$D$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199"/>
+                <c:pt idx="0">
+                  <c:v>1106.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5422.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3972.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6755.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2656.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4575.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6551.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1076.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6585.71</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4940.05</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>847.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2386.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5073.9399999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>844.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4242.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2682.83</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4498.04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>701.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6152.14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6825.03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6794.59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5347.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1258.57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5404.54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>562.27</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>546.02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2535.83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3625.05</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5484.69</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4909.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3342.96</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2205.94</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6981.02</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3212.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3379.15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1479.92</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5645.74</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4978.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1857.08</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>943.71</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4891.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4719.7700000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2203.5100000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6675.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1396.98</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3253.41</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6627.87</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3170.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4614.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3024.12</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2209.8200000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6894.25</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3101.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6301.05</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1917.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1806.49</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>605.48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4701</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2832.27</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6104.76</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3523.19</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6790.08</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1624.47</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6132.91</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5525.54</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5488.08</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5975.57</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5422.76</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4533.05</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1266.22</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>614.66999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6477.6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4469.8900000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5657.15</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3578.05</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1174.23</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1226.23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4924.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3240.02</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1723.46</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3644.52</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>823.78</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4241.01</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2175.36</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5663.89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2448.39</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3404.45</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>476.7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>878.15</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2990.46</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3567.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4360.1400000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2324.9699999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4986.88</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6076.81</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5547.02</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>661.48</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3571.35</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1092.54</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1997.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6911.97</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1340.47</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3692.66</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4479.83</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5036.2700000000004</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4093.68</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>464.49</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2554.64</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3816.9</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>979.92</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2714.14</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>619.14</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>918.62</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3019.69</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1275.92</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4145.7700000000004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4950.47</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5683.87</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1720.99</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1505.39</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1090.1500000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4600.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5062.74</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>608.47</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6579</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>743.01</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3972.56</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5079.8</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6148.4</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5112.97</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5691.41</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2640.37</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5777.85</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>928.76</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6305.79</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4014.11</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5794.17</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3385.3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4647.6099999999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3874.26</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5228.49</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>938.76</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>798.32</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2030.88</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1452.99</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6153.77</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1846.81</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6840.71</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2623.51</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1601.98</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5612.01</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4747.47</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3688.09</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4065.4</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5146.7299999999996</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1907.8</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6975.8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6833.63</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4692.1499999999996</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1716.98</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4889.51</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>876.51</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>602.30999999999995</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2100.71</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3453.31</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6130.6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5199.32</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5301.86</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3208.26</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2683.17</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2848.86</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6918.49</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>664.72</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6122.41</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4219.26</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>3294.86</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5186.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>3612.02</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6164.59</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6344.63</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>3183.36</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2227.06</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4309.51</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6421.6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1790.37</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>4511.58</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>4568.3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5238.55</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1268.3499999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5124.4399999999996</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6399.61</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1585.91</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1967.79</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6811.21</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1594.45</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6038.94</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3649.03</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>2031.73</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6146.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E419-412F-9599-7B6FCEB3871E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="29529728"/>
+        <c:axId val="29536448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="29529728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cost</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Living</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29536448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="29536448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Income</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="29529728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
@@ -755,10 +2399,70 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[MIS-311_PhamThuyHuyen_2132309006.xlsx]Privot table!PivotTable2</c:name>
-    <c:fmtId val="0"/>
+    <c:name>[MIS-311_PhamThuyHuyen_2132309006.xlsx]01_Cost of Living!PivotTable2</c:name>
+    <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>In</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>come and Living cost distribition across contients</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -873,6 +2577,230 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -885,7 +2813,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Privot table'!$B$3</c:f>
+              <c:f>'01_Cost of Living'!$I$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -908,7 +2836,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Privot table'!$A$4:$A$10</c:f>
+              <c:f>'01_Cost of Living'!$H$40:$H$46</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -934,7 +2862,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Privot table'!$B$4:$B$10</c:f>
+              <c:f>'01_Cost of Living'!$I$40:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -942,16 +2870,16 @@
                   <c:v>84513.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204032.85999999996</c:v>
+                  <c:v>196108.15999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>201476.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199214.23000000004</c:v>
+                  <c:v>192480.64000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>99786.579999999973</c:v>
+                  <c:v>99782.639999999985</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>70233.09</c:v>
@@ -961,7 +2889,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C646-4FD7-A16F-E18E9EB86616}"/>
+              <c16:uniqueId val="{00000000-7CF9-4256-80D2-E0B55979AB09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -970,7 +2898,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Privot table'!$C$3</c:f>
+              <c:f>'01_Cost of Living'!$J$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -993,7 +2921,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Privot table'!$A$4:$A$10</c:f>
+              <c:f>'01_Cost of Living'!$H$40:$H$46</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -1019,7 +2947,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Privot table'!$C$4:$C$10</c:f>
+              <c:f>'01_Cost of Living'!$J$40:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1027,13 +2955,13 @@
                   <c:v>71337.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>176813.47</c:v>
+                  <c:v>171328.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>159945.74999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>192197.43000000002</c:v>
+                  <c:v>191253.72000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>86094.709999999977</c:v>
@@ -1046,7 +2974,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C646-4FD7-A16F-E18E9EB86616}"/>
+              <c16:uniqueId val="{00000001-7CF9-4256-80D2-E0B55979AB09}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1060,11 +2988,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="373428751"/>
-        <c:axId val="373435951"/>
+        <c:axId val="1645388512"/>
+        <c:axId val="1645380352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="373428751"/>
+        <c:axId val="1645388512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,7 +3019,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Continents</a:t>
+                  <a:t>Contients</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1162,7 +3090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373435951"/>
+        <c:crossAx val="1645380352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1170,7 +3098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373435951"/>
+        <c:axId val="1645380352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1211,7 +3139,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>The amout</a:t>
+                  <a:t>The amount</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -1281,7 +3209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373428751"/>
+        <c:crossAx val="1645388512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1384,1705 +3312,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>The</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> relationship between Income and Cost of Living</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11808180778410257"/>
-          <c:y val="9.6853582554517148E-2"/>
-          <c:w val="0.84388292773227025"/>
-          <c:h val="0.74637599038437952"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'01_Cost of Living'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cost_of_Living</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'01_Cost of Living'!$C$2:$C$202</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
-                <c:pt idx="0">
-                  <c:v>3483.92</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7771.03</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6991.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6628.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2434.27</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1781.66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5514.82</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7470.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4675.72</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4787.1000000000004</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2599.84</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6271.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1902.83</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2927.59</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3690.77</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4307.08</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2318.0700000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1361.28</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5079.6499999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2664.73</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4859.29</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1657.72</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4108.55</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4494.42</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>888.68</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3024.53</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1508.11</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>975.31</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7924.7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2917.65</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6574.06</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2409.8000000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5611.27</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6201.71</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4967.29</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4036.82</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3588.81</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3116.51</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7471.47</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6729.65</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7737.7</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1432.23</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5981.51</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7537.55</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1859.25</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>998.72</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6058.4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4808.55</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6813.72</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1548.29</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6464.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2012.2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1727.42</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1731.99</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6609.31</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5488.98</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4422.99</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3191.23</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7079</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3443.34</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6624.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3793.51</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3327.08</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3970.1</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2760.33</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6107.07</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4270.3999999999996</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2241.6</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>7246.81</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3379.18</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4576.6499999999996</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7298.54</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5181.78</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1376.74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7548.74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5207.8100000000004</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3011.79</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1544.54</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6455.19</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5150.55</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4500.96</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7204.19</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6414.48</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1637.56</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2837.92</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2363.67</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>6079.6</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>751.49</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4774.17</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6218.44</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7075.74</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3065.61</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>6659.43</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1329.74</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>6848.39</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1456.16</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3479.65</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6479.72</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1624.38</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2219.39</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5916.89</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>5900.27</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>5308.61</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>5704.61</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>4570.43</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2388.4899999999998</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3092.72</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1861.98</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>7313.38</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>4875.4399999999996</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>3506.39</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>3965.04</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>7604.63</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1650.14</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>4896.72</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>4294.17</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>5085.91</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>635.83000000000004</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>7040.93</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>7490.89</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>4738.5</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>5724.88</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>7418.75</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>5804.29</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1644.04</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>4822.16</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>5050.3599999999997</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>3680.98</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>6023.33</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>7507.75</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>7441.76</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>3881.3</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1349.29</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>7886.31</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>6791.74</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1434.97</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>7406.31</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>7024.22</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>4391.29</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>4934.57</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>3492.52</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>910.71</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>3013.98</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>6521.4</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>534.74</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>3001.24</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>3486.27</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>4530.47</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>7398.92</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>3097.59</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>3102.15</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>6031.26</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>3891.63</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>2184.54</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>3893.3</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1556.43</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1822.9</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>4237.76</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>4266.46</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>7361.34</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>3217.95</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>4854.41</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>5241.9799999999996</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>598.21</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>5476.53</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1835.27</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>7708.03</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>1614.97</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>3609.68</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>1140.1199999999999</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>7976.56</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>4266.46</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>4965.3900000000003</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>1003.07</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>4266.46</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>2074.29</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>7235.41</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>2038.55</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1930.16</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>774.12</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>4040.5</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>4736.3100000000004</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>992.81</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>6316.46</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>3899.67</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>4432.93</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>3805.72</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>3505.72</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>4697.3</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>1664.3</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>1864.46</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>6963.39</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>7595.87</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>3299.82</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>2530.59</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>5330</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>3565.51</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>690.4</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1671.14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'01_Cost of Living'!$D$2:$D$202</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="201"/>
-                <c:pt idx="0">
-                  <c:v>1106.07</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5422.78</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3972.36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6755.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2656.36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4575.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6551.39</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1076.56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6585.71</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4940.05</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>847.72</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2386.36</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5073.9399999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>844.51</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4242.33</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2682.83</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4498.04</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>701.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6152.14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6825.03</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6794.59</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5347.7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1258.57</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5404.54</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>562.27</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>546.02</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2535.83</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3625.05</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5484.69</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4909.75</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3342.96</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2205.94</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6981.02</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3212.8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3379.15</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1479.92</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5645.74</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4978.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1857.08</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>943.71</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4891.3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4719.7700000000004</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2203.5100000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6675.7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1396.98</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3253.41</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6627.87</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3170.2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4614.2700000000004</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3024.12</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2209.8200000000002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6894.25</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3101.6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6301.05</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1917.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1806.49</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>605.48</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4701</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2832.27</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6104.76</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3523.19</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6790.08</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1624.47</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6132.91</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5525.54</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5488.08</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5975.57</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5422.76</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4533.05</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1266.22</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>614.66999999999996</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6477.6</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4469.8900000000003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5657.15</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3578.05</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1174.23</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1226.23</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4924.7299999999996</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3240.02</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1723.46</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3644.52</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>823.78</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>4241.01</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2175.36</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5663.89</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2448.39</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3404.45</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>476.7</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>878.15</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2990.46</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3567.6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>4360.1400000000003</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2324.9699999999998</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4986.88</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>6076.81</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5547.02</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>661.48</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3571.35</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1092.54</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1997.5</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>6911.97</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1340.47</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>3692.66</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>4479.83</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>5036.2700000000004</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>4093.68</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>464.49</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2554.64</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>3816.9</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>979.92</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2714.14</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>619.14</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>918.62</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>3019.69</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1275.92</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>4145.7700000000004</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>4950.47</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>5683.87</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1720.99</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1505.39</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1090.1500000000001</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>4600.4399999999996</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>5062.74</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>608.47</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>6579</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>743.01</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>3972.56</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>5079.8</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>6148.4</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>5112.97</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>5691.41</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2640.37</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>5777.85</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>928.76</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>6305.79</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>4014.11</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>5794.17</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>3385.3</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>4647.6099999999997</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>3874.26</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>5228.49</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>938.76</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>798.32</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2030.88</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1452.99</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>6153.77</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1846.81</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>6840.71</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>2623.51</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1601.98</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>5612.01</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>4747.47</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>3688.09</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>4065.4</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>5146.7299999999996</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1907.8</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>6975.8</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>6833.63</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>4692.1499999999996</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1716.98</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>4889.51</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>876.51</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>602.30999999999995</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>2100.71</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>3453.31</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>6130.6</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>5199.32</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>5301.86</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>3208.26</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>2683.17</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>2848.86</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>6918.49</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>664.72</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>6122.41</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>4219.26</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>3294.86</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>5186.7</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>3612.02</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>6164.59</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>6344.63</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>3183.36</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>2227.06</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>4309.51</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>6421.6</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1790.37</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>4511.58</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>4568.3</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>5238.55</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>1268.3499999999999</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>5124.4399999999996</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>6399.61</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>1585.91</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>1967.79</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>6811.21</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>1594.45</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>6038.94</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>3649.03</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>2031.73</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>6146.95</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BFE3-4058-8093-8B149EF5B23F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="373451311"/>
-        <c:axId val="373451791"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="373451311"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Cost</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> of Living</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.47589648743529234"/>
-              <c:y val="0.92147962813059581"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="373451791"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="373451791"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> Income</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US">
-                  <a:solidFill>
-                    <a:sysClr val="windowText" lastClr="000000"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="1.8891687657430732E-2"/>
-              <c:y val="0.37415360463119679"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="373451311"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
-  <a:schemeClr val="accent4"/>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3122,510 +3352,13 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4141,27 +3874,530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B96F3477-7FA7-261A-C553-307454E7847E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B380590-372A-56F4-3016-C13CEC0441C2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4179,30 +4415,25 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>929640</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33CD50B-3606-4EB2-9EC4-A0750B0C3D09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6AEF67-D729-4786-B474-1BB838076641}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4216,7 +4447,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4226,9 +4457,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="DELL" refreshedDate="45861.470909143522" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="201" xr:uid="{51BAD892-8808-4601-9018-A612255F538E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="DELL" refreshedDate="45861.794145717591" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="199" xr:uid="{4DB9C591-28E5-43F3-97EE-6C7F98B67940}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E202" sheet="01_Cost of Living"/>
+    <worksheetSource ref="A1:E200" sheet="01_Cost of Living"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Country" numFmtId="0">
@@ -4251,205 +4482,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2000" maxValue="2023"/>
     </cacheField>
     <cacheField name="Average_Monthly_Income" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="534.74" maxValue="7976.56" count="197">
-        <n v="3483.92"/>
-        <n v="7771.03"/>
-        <n v="6991.3"/>
-        <n v="6628.04"/>
-        <n v="2434.27"/>
-        <n v="1781.66"/>
-        <n v="5514.82"/>
-        <n v="7470.32"/>
-        <n v="4675.72"/>
-        <n v="4787.1000000000004"/>
-        <n v="2599.84"/>
-        <n v="6271.2"/>
-        <n v="1902.83"/>
-        <n v="2927.59"/>
-        <n v="3690.77"/>
-        <n v="4307.08"/>
-        <n v="2318.0700000000002"/>
-        <n v="1361.28"/>
-        <n v="5079.6499999999996"/>
-        <n v="2664.73"/>
-        <n v="4859.29"/>
-        <n v="1657.72"/>
-        <n v="4108.55"/>
-        <n v="4494.42"/>
-        <n v="888.68"/>
-        <n v="3024.53"/>
-        <n v="1508.11"/>
-        <n v="975.31"/>
-        <n v="7924.7"/>
-        <n v="2917.65"/>
-        <n v="6574.06"/>
-        <n v="2409.8000000000002"/>
-        <n v="5611.27"/>
-        <n v="6201.71"/>
-        <n v="4967.29"/>
-        <n v="4036.82"/>
-        <n v="3588.81"/>
-        <n v="3116.51"/>
-        <n v="7471.47"/>
-        <n v="6729.65"/>
-        <n v="7737.7"/>
-        <n v="1432.23"/>
-        <n v="5981.51"/>
-        <n v="7537.55"/>
-        <n v="1859.25"/>
-        <n v="998.72"/>
-        <n v="6058.4"/>
-        <n v="4808.55"/>
-        <n v="6813.72"/>
-        <n v="1548.29"/>
-        <n v="6464.5"/>
-        <n v="2012.2"/>
-        <n v="1727.42"/>
-        <n v="1731.99"/>
-        <n v="6609.31"/>
-        <n v="5488.98"/>
-        <n v="4422.99"/>
-        <n v="3191.23"/>
-        <n v="7079"/>
-        <n v="3443.34"/>
-        <n v="6624.5"/>
-        <n v="3793.51"/>
-        <n v="3327.08"/>
-        <n v="3970.1"/>
-        <n v="2760.33"/>
-        <n v="6107.07"/>
-        <n v="4270.3999999999996"/>
-        <n v="2241.6"/>
-        <n v="7246.81"/>
-        <n v="3379.18"/>
-        <n v="4576.6499999999996"/>
-        <n v="7298.54"/>
-        <n v="5181.78"/>
-        <n v="1376.74"/>
-        <n v="7548.74"/>
-        <n v="5207.8100000000004"/>
-        <n v="3011.79"/>
-        <n v="1544.54"/>
-        <n v="6455.19"/>
-        <n v="5150.55"/>
-        <n v="4500.96"/>
-        <n v="7204.19"/>
-        <n v="6414.48"/>
-        <n v="1637.56"/>
-        <n v="2837.92"/>
-        <n v="2363.67"/>
-        <n v="6079.6"/>
-        <n v="751.49"/>
-        <n v="4774.17"/>
-        <n v="6218.44"/>
-        <n v="7075.74"/>
-        <n v="3065.61"/>
-        <n v="6659.43"/>
-        <n v="1329.74"/>
-        <n v="6848.39"/>
-        <n v="1456.16"/>
-        <n v="3479.65"/>
-        <n v="6479.72"/>
-        <n v="1624.38"/>
-        <n v="2219.39"/>
-        <n v="5916.89"/>
-        <n v="5900.27"/>
-        <n v="5308.61"/>
-        <n v="5704.61"/>
-        <n v="4570.43"/>
-        <n v="2388.4899999999998"/>
-        <n v="3092.72"/>
-        <n v="1861.98"/>
-        <n v="7313.38"/>
-        <n v="4875.4399999999996"/>
-        <n v="3506.39"/>
-        <n v="3965.04"/>
-        <n v="7604.63"/>
-        <n v="1650.14"/>
-        <n v="4896.72"/>
-        <n v="4294.17"/>
-        <n v="5085.91"/>
-        <n v="635.83000000000004"/>
-        <n v="7040.93"/>
-        <n v="7490.89"/>
-        <n v="4738.5"/>
-        <n v="5724.88"/>
-        <n v="7418.75"/>
-        <n v="5804.29"/>
-        <n v="1644.04"/>
-        <n v="4822.16"/>
-        <n v="5050.3599999999997"/>
-        <n v="3680.98"/>
-        <n v="6023.33"/>
-        <n v="7507.75"/>
-        <n v="7441.76"/>
-        <n v="3881.3"/>
-        <n v="1349.29"/>
-        <n v="7886.31"/>
-        <n v="6791.74"/>
-        <n v="1434.97"/>
-        <n v="7406.31"/>
-        <n v="7024.22"/>
-        <n v="4391.29"/>
-        <n v="4934.57"/>
-        <n v="3492.52"/>
-        <n v="910.71"/>
-        <n v="3013.98"/>
-        <n v="6521.4"/>
-        <n v="534.74"/>
-        <n v="3001.24"/>
-        <n v="3486.27"/>
-        <n v="4530.47"/>
-        <n v="7398.92"/>
-        <n v="3097.59"/>
-        <n v="3102.15"/>
-        <n v="6031.26"/>
-        <n v="3891.63"/>
-        <n v="2184.54"/>
-        <n v="3893.3"/>
-        <n v="1556.43"/>
-        <n v="1822.9"/>
-        <n v="4237.76"/>
-        <n v="7361.34"/>
-        <n v="3217.95"/>
-        <n v="4854.41"/>
-        <n v="5241.9799999999996"/>
-        <n v="598.21"/>
-        <n v="5476.53"/>
-        <n v="1835.27"/>
-        <n v="7708.03"/>
-        <n v="1614.97"/>
-        <n v="3609.68"/>
-        <n v="1140.1199999999999"/>
-        <n v="7976.56"/>
-        <n v="4266.46"/>
-        <n v="4965.3900000000003"/>
-        <n v="1003.07"/>
-        <n v="2074.29"/>
-        <n v="7235.41"/>
-        <n v="2038.55"/>
-        <n v="1930.16"/>
-        <n v="774.12"/>
-        <n v="4040.5"/>
-        <n v="4736.3100000000004"/>
-        <n v="992.81"/>
-        <n v="6316.46"/>
-        <n v="3899.67"/>
-        <n v="4432.93"/>
-        <n v="3805.72"/>
-        <n v="3505.72"/>
-        <n v="4697.3"/>
-        <n v="1664.3"/>
-        <n v="1864.46"/>
-        <n v="6963.39"/>
-        <n v="7595.87"/>
-        <n v="3299.82"/>
-        <n v="2530.59"/>
-        <n v="5330"/>
-        <n v="3565.51"/>
-        <n v="690.4"/>
-        <n v="1671.14"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="534.74" maxValue="7976.56"/>
     </cacheField>
     <cacheField name="Cost_of_Living" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="464.49" maxValue="6981.02"/>
@@ -4474,1411 +4507,1397 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="201">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="199">
   <r>
     <x v="0"/>
     <n v="2013"/>
-    <x v="0"/>
+    <n v="3483.92"/>
     <n v="1106.07"/>
     <x v="0"/>
   </r>
   <r>
     <x v="1"/>
     <n v="2019"/>
-    <x v="1"/>
+    <n v="7771.03"/>
     <n v="5422.78"/>
     <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <n v="2004"/>
-    <x v="2"/>
+    <n v="6991.3"/>
     <n v="3972.36"/>
     <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <n v="2011"/>
-    <x v="3"/>
+    <n v="6628.04"/>
     <n v="6755.75"/>
     <x v="3"/>
   </r>
   <r>
     <x v="4"/>
     <n v="2015"/>
-    <x v="4"/>
+    <n v="2434.27"/>
     <n v="2656.36"/>
     <x v="4"/>
   </r>
   <r>
     <x v="0"/>
     <n v="2015"/>
-    <x v="5"/>
+    <n v="1781.66"/>
     <n v="4575.3"/>
     <x v="0"/>
   </r>
   <r>
     <x v="5"/>
     <n v="2020"/>
-    <x v="6"/>
+    <n v="5514.82"/>
     <n v="6551.39"/>
     <x v="1"/>
   </r>
   <r>
     <x v="6"/>
     <n v="2006"/>
-    <x v="7"/>
+    <n v="7470.32"/>
     <n v="1076.56"/>
     <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <n v="2003"/>
-    <x v="8"/>
+    <n v="4675.72"/>
     <n v="6585.71"/>
     <x v="0"/>
   </r>
   <r>
     <x v="2"/>
     <n v="2000"/>
-    <x v="9"/>
+    <n v="4787.1000000000004"/>
     <n v="4940.05"/>
     <x v="2"/>
   </r>
   <r>
     <x v="2"/>
     <n v="2004"/>
-    <x v="10"/>
+    <n v="2599.84"/>
     <n v="847.72"/>
     <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <n v="2022"/>
-    <x v="11"/>
+    <n v="6271.2"/>
     <n v="2386.36"/>
     <x v="3"/>
   </r>
   <r>
     <x v="4"/>
     <n v="2009"/>
-    <x v="12"/>
+    <n v="1902.83"/>
     <n v="5073.9399999999996"/>
     <x v="4"/>
   </r>
   <r>
     <x v="1"/>
     <n v="2021"/>
-    <x v="13"/>
+    <n v="2927.59"/>
     <n v="844.51"/>
     <x v="1"/>
   </r>
   <r>
     <x v="3"/>
     <n v="2004"/>
-    <x v="14"/>
+    <n v="3690.77"/>
     <n v="4242.33"/>
     <x v="3"/>
   </r>
   <r>
     <x v="3"/>
     <n v="2003"/>
-    <x v="15"/>
+    <n v="4307.08"/>
     <n v="2682.83"/>
     <x v="3"/>
   </r>
   <r>
     <x v="6"/>
     <n v="2001"/>
-    <x v="16"/>
+    <n v="2318.0700000000002"/>
     <n v="4498.04"/>
     <x v="1"/>
   </r>
   <r>
     <x v="7"/>
     <n v="2019"/>
-    <x v="17"/>
+    <n v="1361.28"/>
     <n v="701.9"/>
     <x v="5"/>
   </r>
   <r>
     <x v="4"/>
     <n v="2009"/>
-    <x v="18"/>
+    <n v="5079.6499999999996"/>
     <n v="6152.14"/>
     <x v="4"/>
   </r>
   <r>
     <x v="8"/>
     <n v="2018"/>
-    <x v="19"/>
+    <n v="2664.73"/>
     <n v="6825.03"/>
     <x v="2"/>
   </r>
   <r>
     <x v="3"/>
     <n v="2000"/>
-    <x v="20"/>
+    <n v="4859.29"/>
     <n v="6794.59"/>
     <x v="3"/>
   </r>
   <r>
     <x v="9"/>
     <n v="2023"/>
-    <x v="21"/>
+    <n v="1657.72"/>
     <n v="5347.7"/>
     <x v="5"/>
   </r>
   <r>
     <x v="7"/>
     <n v="2004"/>
-    <x v="22"/>
+    <n v="4108.55"/>
     <n v="1258.57"/>
     <x v="5"/>
   </r>
   <r>
     <x v="8"/>
     <n v="2012"/>
-    <x v="23"/>
+    <n v="4494.42"/>
     <n v="5404.54"/>
     <x v="2"/>
   </r>
   <r>
     <x v="9"/>
     <n v="2003"/>
-    <x v="24"/>
+    <n v="888.68"/>
     <n v="562.27"/>
     <x v="5"/>
   </r>
   <r>
     <x v="4"/>
     <n v="2015"/>
-    <x v="25"/>
+    <n v="3024.53"/>
     <n v="546.02"/>
     <x v="4"/>
   </r>
   <r>
     <x v="10"/>
     <n v="2023"/>
-    <x v="26"/>
+    <n v="1508.11"/>
     <n v="2535.83"/>
     <x v="5"/>
   </r>
   <r>
     <x v="9"/>
     <n v="2015"/>
-    <x v="27"/>
+    <n v="975.31"/>
     <n v="3625.05"/>
     <x v="5"/>
   </r>
   <r>
     <x v="5"/>
     <n v="2022"/>
-    <x v="28"/>
+    <n v="7924.7"/>
     <n v="5484.69"/>
     <x v="1"/>
   </r>
   <r>
     <x v="7"/>
     <n v="2001"/>
-    <x v="29"/>
+    <n v="2917.65"/>
     <n v="4909.75"/>
     <x v="5"/>
   </r>
   <r>
     <x v="9"/>
     <n v="2016"/>
-    <x v="30"/>
+    <n v="6574.06"/>
     <n v="3342.96"/>
     <x v="5"/>
   </r>
   <r>
     <x v="11"/>
     <n v="2019"/>
-    <x v="31"/>
+    <n v="2409.8000000000002"/>
     <n v="2205.94"/>
     <x v="2"/>
   </r>
   <r>
     <x v="10"/>
     <n v="2023"/>
-    <x v="32"/>
+    <n v="5611.27"/>
     <n v="6981.02"/>
     <x v="5"/>
   </r>
   <r>
     <x v="2"/>
     <n v="2011"/>
-    <x v="33"/>
+    <n v="6201.71"/>
     <n v="3212.8"/>
     <x v="2"/>
   </r>
   <r>
     <x v="2"/>
     <n v="2017"/>
-    <x v="34"/>
+    <n v="4967.29"/>
     <n v="3379.15"/>
     <x v="2"/>
   </r>
   <r>
     <x v="5"/>
-    <n v="2022"/>
-    <x v="28"/>
-    <n v="5484.69"/>
+    <n v="2002"/>
+    <n v="4036.82"/>
+    <n v="1479.92"/>
     <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2000"/>
+    <n v="3588.81"/>
+    <n v="5645.74"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2000"/>
+    <n v="3116.51"/>
+    <n v="4978.3"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2018"/>
+    <n v="7471.47"/>
+    <n v="1857.08"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2010"/>
+    <n v="6729.65"/>
+    <n v="943.71"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2004"/>
+    <n v="7737.7"/>
+    <n v="4891.3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2011"/>
+    <n v="1432.23"/>
+    <n v="4719.7700000000004"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2002"/>
+    <n v="5981.51"/>
+    <n v="2203.5100000000002"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2000"/>
+    <n v="7537.55"/>
+    <n v="6675.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2000"/>
+    <n v="1859.25"/>
+    <n v="1396.98"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2007"/>
+    <n v="998.72"/>
+    <n v="3253.41"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2009"/>
+    <n v="6058.4"/>
+    <n v="6627.87"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2010"/>
+    <n v="4808.55"/>
+    <n v="3170.2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2011"/>
+    <n v="6813.72"/>
+    <n v="4614.2700000000004"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2012"/>
+    <n v="1548.29"/>
+    <n v="3024.12"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2011"/>
+    <n v="6464.5"/>
+    <n v="2209.8200000000002"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2013"/>
+    <n v="2012.2"/>
+    <n v="6894.25"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2001"/>
+    <n v="1727.42"/>
+    <n v="3101.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2018"/>
+    <n v="1731.99"/>
+    <n v="6301.05"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2017"/>
+    <n v="6609.31"/>
+    <n v="1917.7"/>
+    <x v="2"/>
   </r>
   <r>
     <x v="5"/>
     <n v="2002"/>
-    <x v="35"/>
-    <n v="1479.92"/>
+    <n v="5488.98"/>
+    <n v="1806.49"/>
     <x v="1"/>
   </r>
   <r>
+    <x v="11"/>
+    <n v="2022"/>
+    <n v="4422.99"/>
+    <n v="605.48"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2016"/>
+    <n v="3191.23"/>
+    <n v="4701"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2007"/>
+    <n v="7079"/>
+    <n v="2832.27"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2009"/>
+    <n v="3443.34"/>
+    <n v="6104.76"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2001"/>
+    <n v="6624.5"/>
+    <n v="3523.19"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="9"/>
-    <n v="2000"/>
-    <x v="36"/>
-    <n v="5645.74"/>
+    <n v="2018"/>
+    <n v="3793.51"/>
+    <n v="6790.08"/>
     <x v="5"/>
   </r>
   <r>
     <x v="9"/>
-    <n v="2000"/>
-    <x v="37"/>
-    <n v="4978.3"/>
+    <n v="2008"/>
+    <n v="3327.08"/>
+    <n v="1624.47"/>
     <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2006"/>
+    <n v="3970.1"/>
+    <n v="6132.91"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2003"/>
+    <n v="2760.33"/>
+    <n v="5525.54"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2020"/>
+    <n v="6107.07"/>
+    <n v="5488.08"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2017"/>
+    <n v="4270.3999999999996"/>
+    <n v="5975.57"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2012"/>
+    <n v="2241.6"/>
+    <n v="5422.76"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2010"/>
+    <n v="7246.81"/>
+    <n v="4533.05"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2023"/>
+    <n v="3379.18"/>
+    <n v="1266.22"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2003"/>
+    <n v="4576.6499999999996"/>
+    <n v="614.66999999999996"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2020"/>
+    <n v="7298.54"/>
+    <n v="6477.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2003"/>
+    <n v="5181.78"/>
+    <n v="4469.8900000000003"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2009"/>
+    <n v="1376.74"/>
+    <n v="5657.15"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2004"/>
+    <n v="7548.74"/>
+    <n v="3578.05"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2008"/>
+    <n v="5207.8100000000004"/>
+    <n v="1174.23"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2023"/>
+    <n v="3011.79"/>
+    <n v="1226.23"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2002"/>
+    <n v="1544.54"/>
+    <n v="4924.7299999999996"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2016"/>
+    <n v="6455.19"/>
+    <n v="3240.02"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2002"/>
+    <n v="5150.55"/>
+    <n v="1723.46"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2015"/>
+    <n v="4500.96"/>
+    <n v="3644.52"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2003"/>
+    <n v="7204.19"/>
+    <n v="823.78"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2017"/>
+    <n v="6414.48"/>
+    <n v="4241.01"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2016"/>
+    <n v="1637.56"/>
+    <n v="2175.36"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2006"/>
+    <n v="2837.92"/>
+    <n v="5663.89"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2023"/>
+    <n v="2363.67"/>
+    <n v="2448.39"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2022"/>
+    <n v="6079.6"/>
+    <n v="3404.45"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2004"/>
+    <n v="751.49"/>
+    <n v="476.7"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2011"/>
+    <n v="4774.17"/>
+    <n v="878.15"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2016"/>
+    <n v="6218.44"/>
+    <n v="2990.46"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2022"/>
+    <n v="7075.74"/>
+    <n v="3567.6"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2012"/>
+    <n v="3065.61"/>
+    <n v="4360.1400000000003"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2022"/>
+    <n v="6659.43"/>
+    <n v="2324.9699999999998"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2002"/>
+    <n v="1329.74"/>
+    <n v="4986.88"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2008"/>
+    <n v="6848.39"/>
+    <n v="6076.81"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2016"/>
+    <n v="1456.16"/>
+    <n v="5547.02"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2016"/>
+    <n v="3479.65"/>
+    <n v="661.48"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2019"/>
+    <n v="6479.72"/>
+    <n v="3571.35"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2015"/>
+    <n v="1624.38"/>
+    <n v="1092.54"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2021"/>
+    <n v="2219.39"/>
+    <n v="1997.5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2012"/>
+    <n v="5916.89"/>
+    <n v="6911.97"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2018"/>
+    <n v="5900.27"/>
+    <n v="1340.47"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2016"/>
+    <n v="5308.61"/>
+    <n v="3692.66"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2003"/>
+    <n v="5704.61"/>
+    <n v="4479.83"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2011"/>
+    <n v="4570.43"/>
+    <n v="5036.2700000000004"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2008"/>
+    <n v="2388.4899999999998"/>
+    <n v="4093.68"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2018"/>
+    <n v="3092.72"/>
+    <n v="464.49"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2011"/>
+    <n v="1861.98"/>
+    <n v="2554.64"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2008"/>
+    <n v="7313.38"/>
+    <n v="3816.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2006"/>
+    <n v="4875.4399999999996"/>
+    <n v="979.92"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2013"/>
+    <n v="3506.39"/>
+    <n v="2714.14"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2019"/>
+    <n v="3965.04"/>
+    <n v="619.14"/>
+    <x v="3"/>
   </r>
   <r>
     <x v="6"/>
     <n v="2018"/>
-    <x v="38"/>
-    <n v="1857.08"/>
+    <n v="7604.63"/>
+    <n v="918.62"/>
     <x v="1"/>
   </r>
   <r>
+    <x v="6"/>
+    <n v="2014"/>
+    <n v="1650.14"/>
+    <n v="3019.69"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2015"/>
+    <n v="4896.72"/>
+    <n v="1275.92"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2020"/>
+    <n v="4294.17"/>
+    <n v="4145.7700000000004"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2004"/>
+    <n v="5085.91"/>
+    <n v="4950.47"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2002"/>
+    <n v="635.83000000000004"/>
+    <n v="5683.87"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2011"/>
+    <n v="7040.93"/>
+    <n v="1720.99"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2019"/>
+    <n v="7490.89"/>
+    <n v="1505.39"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2020"/>
+    <n v="4738.5"/>
+    <n v="1090.1500000000001"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="9"/>
+    <n v="2003"/>
+    <n v="5724.88"/>
+    <n v="4600.4399999999996"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2020"/>
+    <n v="7418.75"/>
+    <n v="5062.74"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2022"/>
+    <n v="5804.29"/>
+    <n v="608.47"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2015"/>
+    <n v="1644.04"/>
+    <n v="6579"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2006"/>
+    <n v="4822.16"/>
+    <n v="743.01"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2012"/>
+    <n v="5050.3599999999997"/>
+    <n v="3972.56"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2020"/>
+    <n v="3680.98"/>
+    <n v="5079.8"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2009"/>
+    <n v="6023.33"/>
+    <n v="6148.4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2006"/>
+    <n v="7507.75"/>
+    <n v="5112.97"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2013"/>
+    <n v="7441.76"/>
+    <n v="5691.41"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2004"/>
+    <n v="3881.3"/>
+    <n v="2640.37"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2002"/>
+    <n v="1349.29"/>
+    <n v="5777.85"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2022"/>
+    <n v="7886.31"/>
+    <n v="928.76"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
     <n v="2010"/>
-    <x v="39"/>
-    <n v="943.71"/>
+    <n v="6791.74"/>
+    <n v="6305.79"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2010"/>
+    <n v="1434.97"/>
+    <n v="4014.11"/>
     <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2017"/>
+    <n v="7406.31"/>
+    <n v="5794.17"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2014"/>
+    <n v="7024.22"/>
+    <n v="3385.3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2011"/>
+    <n v="4391.29"/>
+    <n v="4647.6099999999997"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2008"/>
+    <n v="4934.57"/>
+    <n v="3874.26"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2009"/>
+    <n v="3492.52"/>
+    <n v="5228.49"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2011"/>
+    <n v="910.71"/>
+    <n v="938.76"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="2016"/>
+    <n v="3013.98"/>
+    <n v="798.32"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2005"/>
+    <n v="6521.4"/>
+    <n v="2030.88"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2006"/>
+    <n v="534.74"/>
+    <n v="1452.99"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2013"/>
+    <n v="3001.24"/>
+    <n v="6153.77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2012"/>
+    <n v="3486.27"/>
+    <n v="1846.81"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2007"/>
+    <n v="4530.47"/>
+    <n v="6840.71"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2009"/>
+    <n v="7398.92"/>
+    <n v="2623.51"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2008"/>
+    <n v="3097.59"/>
+    <n v="1601.98"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2017"/>
+    <n v="3102.15"/>
+    <n v="5612.01"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2001"/>
+    <n v="6031.26"/>
+    <n v="4747.47"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2004"/>
+    <n v="3891.63"/>
+    <n v="3688.09"/>
+    <x v="1"/>
   </r>
   <r>
     <x v="0"/>
     <n v="2004"/>
-    <x v="40"/>
-    <n v="4891.3"/>
+    <n v="2184.54"/>
+    <n v="4065.4"/>
     <x v="0"/>
   </r>
   <r>
+    <x v="10"/>
+    <n v="2005"/>
+    <n v="3893.3"/>
+    <n v="5146.7299999999996"/>
+    <x v="5"/>
+  </r>
+  <r>
     <x v="1"/>
-    <n v="2011"/>
-    <x v="41"/>
-    <n v="4719.7700000000004"/>
+    <n v="2018"/>
+    <n v="1556.43"/>
+    <n v="1907.8"/>
     <x v="1"/>
   </r>
   <r>
+    <x v="1"/>
+    <n v="2007"/>
+    <n v="1822.9"/>
+    <n v="6975.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="2015"/>
+    <n v="4237.76"/>
+    <n v="6833.63"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2012"/>
+    <n v="4266.46"/>
+    <n v="4692.1499999999996"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2000"/>
+    <n v="7361.34"/>
+    <n v="1716.98"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2021"/>
+    <n v="3217.95"/>
+    <n v="4889.51"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2019"/>
+    <n v="4854.41"/>
+    <n v="876.51"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2016"/>
+    <n v="5241.9799999999996"/>
+    <n v="602.30999999999995"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2006"/>
+    <n v="598.21"/>
+    <n v="2100.71"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2012"/>
+    <n v="5476.53"/>
+    <n v="3453.31"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2003"/>
+    <n v="1835.27"/>
+    <n v="6130.6"/>
+    <x v="5"/>
+  </r>
+  <r>
     <x v="9"/>
-    <n v="2010"/>
-    <x v="39"/>
-    <n v="943.71"/>
+    <n v="2003"/>
+    <n v="7708.03"/>
+    <n v="5199.32"/>
     <x v="5"/>
   </r>
   <r>
-    <x v="11"/>
-    <n v="2002"/>
-    <x v="42"/>
-    <n v="2203.5100000000002"/>
+    <x v="8"/>
+    <n v="2005"/>
+    <n v="1614.97"/>
+    <n v="5301.86"/>
     <x v="2"/>
   </r>
   <r>
-    <x v="6"/>
-    <n v="2000"/>
-    <x v="43"/>
-    <n v="6675.7"/>
+    <x v="5"/>
+    <n v="2018"/>
+    <n v="3609.68"/>
+    <n v="3208.26"/>
     <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2000"/>
-    <x v="44"/>
-    <n v="1396.98"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2007"/>
-    <x v="45"/>
-    <n v="3253.41"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2009"/>
-    <x v="46"/>
-    <n v="6627.87"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2010"/>
-    <x v="47"/>
-    <n v="3170.2"/>
-    <x v="4"/>
   </r>
   <r>
     <x v="11"/>
     <n v="2011"/>
-    <x v="48"/>
-    <n v="4614.2700000000004"/>
+    <n v="1140.1199999999999"/>
+    <n v="2683.17"/>
     <x v="2"/>
   </r>
   <r>
-    <x v="0"/>
-    <n v="2012"/>
-    <x v="49"/>
-    <n v="3024.12"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2011"/>
-    <x v="50"/>
-    <n v="2209.8200000000002"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2013"/>
-    <x v="51"/>
-    <n v="6894.25"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2001"/>
-    <x v="52"/>
-    <n v="3101.6"/>
-    <x v="2"/>
+    <x v="4"/>
+    <n v="2021"/>
+    <n v="7976.56"/>
+    <n v="2848.86"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2006"/>
+    <n v="4266.46"/>
+    <n v="6918.49"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2009"/>
+    <n v="4965.3900000000003"/>
+    <n v="664.72"/>
+    <x v="5"/>
   </r>
   <r>
     <x v="9"/>
     <n v="2018"/>
-    <x v="53"/>
-    <n v="6301.05"/>
+    <n v="1003.07"/>
+    <n v="6122.41"/>
     <x v="5"/>
   </r>
   <r>
-    <x v="8"/>
+    <x v="9"/>
+    <n v="2006"/>
+    <n v="4266.46"/>
+    <n v="4219.26"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2002"/>
+    <n v="2074.29"/>
+    <n v="3294.86"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2012"/>
+    <n v="7235.41"/>
+    <n v="5186.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2012"/>
+    <n v="2038.55"/>
+    <n v="3612.02"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
     <n v="2017"/>
-    <x v="54"/>
-    <n v="1917.7"/>
+    <n v="1930.16"/>
+    <n v="6164.59"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="2019"/>
+    <n v="774.12"/>
+    <n v="6344.63"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2007"/>
+    <n v="4040.5"/>
+    <n v="3183.36"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2008"/>
+    <n v="4736.3100000000004"/>
+    <n v="2227.06"/>
     <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2002"/>
-    <x v="55"/>
-    <n v="1806.49"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2022"/>
-    <x v="56"/>
-    <n v="605.48"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2016"/>
-    <x v="57"/>
-    <n v="4701"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2007"/>
-    <x v="58"/>
-    <n v="2832.27"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2009"/>
-    <x v="59"/>
-    <n v="6104.76"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2001"/>
-    <x v="60"/>
-    <n v="3523.19"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2018"/>
-    <x v="61"/>
-    <n v="6790.08"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2008"/>
-    <x v="62"/>
-    <n v="1624.47"/>
-    <x v="5"/>
   </r>
   <r>
     <x v="0"/>
     <n v="2006"/>
-    <x v="63"/>
-    <n v="6132.91"/>
+    <n v="992.81"/>
+    <n v="4309.51"/>
     <x v="0"/>
   </r>
   <r>
-    <x v="9"/>
-    <n v="2003"/>
-    <x v="64"/>
-    <n v="5525.54"/>
+    <x v="10"/>
+    <n v="2000"/>
+    <n v="6316.46"/>
+    <n v="6421.6"/>
     <x v="5"/>
   </r>
   <r>
-    <x v="3"/>
-    <n v="2020"/>
-    <x v="65"/>
-    <n v="5488.08"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2017"/>
-    <x v="66"/>
-    <n v="5975.57"/>
-    <x v="1"/>
-  </r>
-  <r>
     <x v="10"/>
-    <n v="2012"/>
-    <x v="67"/>
-    <n v="5422.76"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2010"/>
-    <x v="68"/>
-    <n v="4533.05"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2023"/>
-    <x v="69"/>
-    <n v="1266.22"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2003"/>
-    <x v="70"/>
-    <n v="614.66999999999996"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2020"/>
-    <x v="71"/>
-    <n v="6477.6"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2003"/>
-    <x v="72"/>
-    <n v="4469.8900000000003"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="2009"/>
-    <x v="73"/>
-    <n v="5657.15"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="2004"/>
-    <x v="74"/>
-    <n v="3578.05"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2008"/>
-    <x v="75"/>
-    <n v="1174.23"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2023"/>
-    <x v="76"/>
-    <n v="1226.23"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
     <n v="2002"/>
-    <x v="77"/>
-    <n v="4924.7299999999996"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2016"/>
-    <x v="78"/>
-    <n v="3240.02"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2002"/>
-    <x v="79"/>
-    <n v="1723.46"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2015"/>
-    <x v="80"/>
-    <n v="3644.52"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2003"/>
-    <x v="81"/>
-    <n v="823.78"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2017"/>
-    <x v="82"/>
-    <n v="4241.01"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2016"/>
-    <x v="83"/>
-    <n v="2175.36"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2006"/>
-    <x v="84"/>
-    <n v="5663.89"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2023"/>
-    <x v="85"/>
-    <n v="2448.39"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2022"/>
-    <x v="86"/>
-    <n v="3404.45"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2004"/>
-    <x v="87"/>
-    <n v="476.7"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2011"/>
-    <x v="88"/>
-    <n v="878.15"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2016"/>
-    <x v="89"/>
-    <n v="2990.46"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2022"/>
-    <x v="90"/>
-    <n v="3567.6"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2012"/>
-    <x v="91"/>
-    <n v="4360.1400000000003"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2022"/>
-    <x v="92"/>
-    <n v="2324.9699999999998"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2002"/>
-    <x v="93"/>
-    <n v="4986.88"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2008"/>
-    <x v="94"/>
-    <n v="6076.81"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2016"/>
-    <x v="95"/>
-    <n v="5547.02"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2016"/>
-    <x v="96"/>
-    <n v="661.48"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2019"/>
-    <x v="97"/>
-    <n v="3571.35"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2015"/>
-    <x v="98"/>
-    <n v="1092.54"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2021"/>
-    <x v="99"/>
-    <n v="1997.5"/>
+    <n v="3899.67"/>
+    <n v="1790.37"/>
     <x v="5"/>
   </r>
   <r>
     <x v="11"/>
     <n v="2012"/>
-    <x v="100"/>
-    <n v="6911.97"/>
+    <n v="4432.93"/>
+    <n v="4511.58"/>
     <x v="2"/>
   </r>
   <r>
+    <x v="2"/>
+    <n v="2016"/>
+    <n v="3805.72"/>
+    <n v="4568.3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2023"/>
+    <n v="3505.72"/>
+    <n v="5238.55"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="2000"/>
+    <n v="4697.3"/>
+    <n v="1268.3499999999999"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2005"/>
+    <n v="1664.3"/>
+    <n v="5124.4399999999996"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="2020"/>
+    <n v="1864.46"/>
+    <n v="6399.61"/>
+    <x v="1"/>
+  </r>
+  <r>
     <x v="0"/>
-    <n v="2018"/>
-    <x v="101"/>
-    <n v="1340.47"/>
+    <n v="2005"/>
+    <n v="6963.39"/>
+    <n v="1585.91"/>
     <x v="0"/>
   </r>
   <r>
+    <x v="7"/>
+    <n v="2011"/>
+    <n v="7595.87"/>
+    <n v="1967.79"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2012"/>
+    <n v="3299.82"/>
+    <n v="6811.21"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2012"/>
+    <n v="2530.59"/>
+    <n v="1594.45"/>
+    <x v="2"/>
+  </r>
+  <r>
     <x v="11"/>
-    <n v="2016"/>
-    <x v="102"/>
-    <n v="3692.66"/>
+    <n v="2014"/>
+    <n v="5330"/>
+    <n v="6038.94"/>
     <x v="2"/>
   </r>
   <r>
-    <x v="3"/>
-    <n v="2003"/>
-    <x v="103"/>
-    <n v="4479.83"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2011"/>
-    <x v="104"/>
-    <n v="5036.2700000000004"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2008"/>
-    <x v="105"/>
-    <n v="4093.68"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2018"/>
-    <x v="106"/>
-    <n v="464.49"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2011"/>
-    <x v="107"/>
-    <n v="2554.64"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2008"/>
-    <x v="108"/>
-    <n v="3816.9"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2006"/>
-    <x v="109"/>
-    <n v="979.92"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2013"/>
-    <x v="110"/>
-    <n v="2714.14"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2019"/>
-    <x v="111"/>
-    <n v="619.14"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2018"/>
-    <x v="112"/>
-    <n v="918.62"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2014"/>
-    <x v="113"/>
-    <n v="3019.69"/>
-    <x v="1"/>
+    <x v="4"/>
+    <n v="2020"/>
+    <n v="3565.51"/>
+    <n v="3649.03"/>
+    <x v="4"/>
   </r>
   <r>
     <x v="10"/>
     <n v="2015"/>
-    <x v="114"/>
-    <n v="1275.92"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2020"/>
-    <x v="115"/>
-    <n v="4145.7700000000004"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2004"/>
-    <x v="116"/>
-    <n v="4950.47"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2002"/>
-    <x v="117"/>
-    <n v="5683.87"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2011"/>
-    <x v="118"/>
-    <n v="1720.99"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2019"/>
-    <x v="119"/>
-    <n v="1505.39"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2020"/>
-    <x v="120"/>
-    <n v="1090.1500000000001"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2003"/>
-    <x v="121"/>
-    <n v="4600.4399999999996"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2020"/>
-    <x v="122"/>
-    <n v="5062.74"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2022"/>
-    <x v="123"/>
-    <n v="608.47"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2015"/>
-    <x v="124"/>
-    <n v="6579"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2006"/>
-    <x v="125"/>
-    <n v="743.01"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2012"/>
-    <x v="126"/>
-    <n v="3972.56"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2020"/>
-    <x v="127"/>
-    <n v="5079.8"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2009"/>
-    <x v="128"/>
-    <n v="6148.4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2006"/>
-    <x v="129"/>
-    <n v="5112.97"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2013"/>
-    <x v="130"/>
-    <n v="5691.41"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2004"/>
-    <x v="131"/>
-    <n v="2640.37"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2002"/>
-    <x v="132"/>
-    <n v="5777.85"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2022"/>
-    <x v="133"/>
-    <n v="928.76"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2010"/>
-    <x v="134"/>
-    <n v="6305.79"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="2010"/>
-    <x v="135"/>
-    <n v="4014.11"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2017"/>
-    <x v="136"/>
-    <n v="5794.17"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2014"/>
-    <x v="137"/>
-    <n v="3385.3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2011"/>
-    <x v="138"/>
-    <n v="4647.6099999999997"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2008"/>
-    <x v="139"/>
-    <n v="3874.26"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2009"/>
-    <x v="140"/>
-    <n v="5228.49"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2011"/>
-    <x v="141"/>
-    <n v="938.76"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2016"/>
-    <x v="142"/>
-    <n v="798.32"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2005"/>
-    <x v="143"/>
-    <n v="2030.88"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2006"/>
-    <x v="144"/>
-    <n v="1452.99"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2013"/>
-    <x v="145"/>
-    <n v="6153.77"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2012"/>
-    <x v="146"/>
-    <n v="1846.81"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2007"/>
-    <x v="147"/>
-    <n v="6840.71"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2009"/>
-    <x v="148"/>
-    <n v="2623.51"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2008"/>
-    <x v="149"/>
-    <n v="1601.98"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2017"/>
-    <x v="150"/>
-    <n v="5612.01"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2001"/>
-    <x v="151"/>
-    <n v="4747.47"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2004"/>
-    <x v="152"/>
-    <n v="3688.09"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2004"/>
-    <x v="153"/>
-    <n v="4065.4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2005"/>
-    <x v="154"/>
-    <n v="5146.7299999999996"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2018"/>
-    <x v="155"/>
-    <n v="1907.8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2007"/>
-    <x v="156"/>
-    <n v="6975.8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2015"/>
-    <x v="157"/>
-    <n v="6833.63"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2012"/>
-    <x v="66"/>
-    <n v="4692.1499999999996"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2000"/>
-    <x v="158"/>
-    <n v="1716.98"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2021"/>
-    <x v="159"/>
-    <n v="4889.51"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2019"/>
-    <x v="160"/>
-    <n v="876.51"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2016"/>
-    <x v="161"/>
-    <n v="602.30999999999995"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2006"/>
-    <x v="162"/>
-    <n v="2100.71"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2012"/>
-    <x v="163"/>
-    <n v="3453.31"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="2003"/>
-    <x v="164"/>
-    <n v="6130.6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2003"/>
-    <x v="165"/>
-    <n v="5199.32"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="2005"/>
-    <x v="166"/>
-    <n v="5301.86"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2018"/>
-    <x v="167"/>
-    <n v="3208.26"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2011"/>
-    <x v="168"/>
-    <n v="2683.17"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2021"/>
-    <x v="169"/>
-    <n v="2848.86"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="2006"/>
-    <x v="170"/>
-    <n v="6918.49"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2009"/>
-    <x v="171"/>
-    <n v="664.72"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2018"/>
-    <x v="172"/>
-    <n v="6122.41"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2006"/>
-    <x v="66"/>
-    <n v="4219.26"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2002"/>
-    <x v="173"/>
-    <n v="3294.86"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2012"/>
-    <x v="174"/>
-    <n v="5186.7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2012"/>
-    <x v="175"/>
-    <n v="3612.02"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="2017"/>
-    <x v="176"/>
-    <n v="6164.59"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2019"/>
-    <x v="177"/>
-    <n v="6344.63"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="2007"/>
-    <x v="178"/>
-    <n v="3183.36"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2008"/>
-    <x v="179"/>
-    <n v="2227.06"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2006"/>
-    <x v="180"/>
-    <n v="4309.51"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2000"/>
-    <x v="181"/>
-    <n v="6421.6"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2002"/>
-    <x v="182"/>
-    <n v="1790.37"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2012"/>
-    <x v="183"/>
-    <n v="4511.58"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2016"/>
-    <x v="184"/>
-    <n v="4568.3"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2023"/>
-    <x v="185"/>
-    <n v="5238.55"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="2000"/>
-    <x v="186"/>
-    <n v="1268.3499999999999"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2005"/>
-    <x v="187"/>
-    <n v="5124.4399999999996"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="2020"/>
-    <x v="188"/>
-    <n v="6399.61"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <n v="2005"/>
-    <x v="189"/>
-    <n v="1585.91"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="2011"/>
-    <x v="190"/>
-    <n v="1967.79"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="2012"/>
-    <x v="191"/>
-    <n v="6811.21"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="2012"/>
-    <x v="192"/>
-    <n v="1594.45"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <n v="2014"/>
-    <x v="193"/>
-    <n v="6038.94"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="2020"/>
-    <x v="194"/>
-    <n v="3649.03"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <n v="2015"/>
-    <x v="195"/>
+    <n v="690.4"/>
     <n v="2031.73"/>
     <x v="5"/>
   </r>
   <r>
     <x v="6"/>
     <n v="2021"/>
-    <x v="196"/>
+    <n v="1671.14"/>
     <n v="6146.95"/>
     <x v="1"/>
   </r>
@@ -5886,10 +5905,10 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56E77877-635D-4F85-9719-BB98481F8FAD}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66B1F1FF-FB3E-4D06-959D-6D6B1A14DF66}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="H39:J46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="4"/>
@@ -5907,208 +5926,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="198">
-        <item x="144"/>
-        <item x="162"/>
-        <item x="117"/>
-        <item x="195"/>
-        <item x="87"/>
-        <item x="177"/>
-        <item x="24"/>
-        <item x="141"/>
-        <item x="27"/>
-        <item x="180"/>
-        <item x="45"/>
-        <item x="172"/>
-        <item x="168"/>
-        <item x="93"/>
-        <item x="132"/>
-        <item x="17"/>
-        <item x="73"/>
-        <item x="41"/>
-        <item x="135"/>
-        <item x="95"/>
-        <item x="26"/>
-        <item x="77"/>
-        <item x="49"/>
-        <item x="155"/>
-        <item x="166"/>
-        <item x="98"/>
-        <item x="83"/>
-        <item x="124"/>
-        <item x="113"/>
-        <item x="21"/>
-        <item x="187"/>
-        <item x="196"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="5"/>
-        <item x="156"/>
-        <item x="164"/>
-        <item x="44"/>
-        <item x="107"/>
-        <item x="188"/>
-        <item x="12"/>
-        <item x="176"/>
-        <item x="51"/>
-        <item x="175"/>
-        <item x="173"/>
-        <item x="153"/>
-        <item x="99"/>
-        <item x="67"/>
-        <item x="16"/>
-        <item x="85"/>
-        <item x="105"/>
-        <item x="31"/>
-        <item x="4"/>
-        <item x="192"/>
-        <item x="10"/>
-        <item x="19"/>
-        <item x="64"/>
-        <item x="84"/>
-        <item x="29"/>
-        <item x="13"/>
-        <item x="145"/>
-        <item x="76"/>
-        <item x="142"/>
-        <item x="25"/>
-        <item x="91"/>
-        <item x="106"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="37"/>
-        <item x="57"/>
-        <item x="159"/>
-        <item x="191"/>
-        <item x="62"/>
-        <item x="69"/>
-        <item x="59"/>
-        <item x="96"/>
-        <item x="0"/>
-        <item x="146"/>
-        <item x="140"/>
-        <item x="185"/>
-        <item x="110"/>
-        <item x="194"/>
-        <item x="36"/>
-        <item x="167"/>
-        <item x="127"/>
-        <item x="14"/>
-        <item x="61"/>
-        <item x="184"/>
-        <item x="131"/>
-        <item x="152"/>
-        <item x="154"/>
-        <item x="182"/>
-        <item x="111"/>
-        <item x="63"/>
-        <item x="35"/>
-        <item x="178"/>
-        <item x="22"/>
-        <item x="157"/>
-        <item x="170"/>
-        <item x="66"/>
-        <item x="115"/>
-        <item x="15"/>
-        <item x="138"/>
-        <item x="56"/>
-        <item x="183"/>
-        <item x="23"/>
-        <item x="80"/>
-        <item x="147"/>
-        <item x="104"/>
-        <item x="70"/>
-        <item x="8"/>
-        <item x="186"/>
-        <item x="179"/>
-        <item x="120"/>
-        <item x="88"/>
-        <item x="9"/>
-        <item x="47"/>
-        <item x="125"/>
-        <item x="160"/>
-        <item x="20"/>
-        <item x="109"/>
-        <item x="114"/>
-        <item x="139"/>
-        <item x="171"/>
-        <item x="34"/>
-        <item x="126"/>
-        <item x="18"/>
-        <item x="116"/>
-        <item x="79"/>
-        <item x="72"/>
-        <item x="75"/>
-        <item x="161"/>
-        <item x="102"/>
-        <item x="193"/>
-        <item x="163"/>
-        <item x="55"/>
-        <item x="6"/>
-        <item x="32"/>
-        <item x="103"/>
-        <item x="121"/>
-        <item x="123"/>
-        <item x="101"/>
-        <item x="100"/>
-        <item x="42"/>
-        <item x="128"/>
-        <item x="151"/>
-        <item x="46"/>
-        <item x="86"/>
-        <item x="65"/>
-        <item x="33"/>
-        <item x="89"/>
-        <item x="11"/>
-        <item x="181"/>
-        <item x="82"/>
-        <item x="78"/>
-        <item x="50"/>
-        <item x="97"/>
-        <item x="143"/>
-        <item x="30"/>
-        <item x="54"/>
-        <item x="60"/>
-        <item x="3"/>
-        <item x="92"/>
-        <item x="39"/>
-        <item x="134"/>
-        <item x="48"/>
-        <item x="94"/>
-        <item x="189"/>
-        <item x="2"/>
-        <item x="137"/>
-        <item x="118"/>
-        <item x="90"/>
-        <item x="58"/>
-        <item x="81"/>
-        <item x="174"/>
-        <item x="68"/>
-        <item x="71"/>
-        <item x="108"/>
-        <item x="158"/>
-        <item x="148"/>
-        <item x="136"/>
-        <item x="122"/>
-        <item x="130"/>
-        <item x="7"/>
-        <item x="38"/>
-        <item x="119"/>
-        <item x="129"/>
-        <item x="43"/>
-        <item x="74"/>
-        <item x="190"/>
-        <item x="112"/>
-        <item x="165"/>
-        <item x="40"/>
-        <item x="1"/>
-        <item x="133"/>
-        <item x="28"/>
-        <item x="169"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
@@ -6167,7 +5985,7 @@
     <dataField name="Sum of Cost_of_Living" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="5" format="4" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6176,7 +5994,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="5" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6515,10 +6333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6B085B-3A2F-48B8-98A7-3DB0C05C4D54}">
-  <dimension ref="A1:E200"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E202"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6528,9 +6346,14 @@
     <col min="3" max="3" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.21875" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6546,8 +6369,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="K1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6563,8 +6394,12 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -6580,8 +6415,20 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4244.1932160804035</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="4">
+        <v>3705.1272864321595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6597,8 +6444,20 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="4">
+        <v>150.04449177907691</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="4">
+        <v>140.51561303812548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -6614,8 +6473,20 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4266.46</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3688.09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6631,8 +6502,20 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4266.46</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6648,8 +6531,20 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2116.6380307305863</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1982.2166541497334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -6665,8 +6560,20 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4480156.5531350533</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="4">
+        <v>3929182.8639885634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -6682,8 +6589,20 @@
       <c r="E9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="4">
+        <v>-1.1666876706416986</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="4">
+        <v>-1.2720068292915554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -6699,8 +6618,20 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5.5307916081595514E-2</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="4">
+        <v>-4.103302041281686E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6716,8 +6647,20 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="4">
+        <v>7441.8200000000006</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="4">
+        <v>6516.5300000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6733,8 +6676,20 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="4">
+        <v>534.74</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="4">
+        <v>464.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6750,8 +6705,20 @@
       <c r="E13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7976.56</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="4">
+        <v>6981.02</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -6767,8 +6734,20 @@
       <c r="E14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="4">
+        <v>844594.4500000003</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="4">
+        <v>737320.32999999973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -6784,8 +6763,20 @@
       <c r="E15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="4">
+        <v>199</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -6801,8 +6792,20 @@
       <c r="E16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="5">
+        <v>295.8903602414058</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="5">
+        <v>277.09924482006676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -6819,7 +6822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -6852,8 +6855,11 @@
       <c r="E19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -6870,7 +6876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -6887,7 +6893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -6904,7 +6910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -6921,7 +6927,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -6938,7 +6944,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -6955,7 +6961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -6968,11 +6974,11 @@
       <c r="D26">
         <v>562.27</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -6989,7 +6995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -7006,7 +7012,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -7023,7 +7029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -7040,7 +7046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -7057,7 +7063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -7074,7 +7080,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -7091,7 +7097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -7108,7 +7114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -7125,7 +7131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -7142,7 +7148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -7158,8 +7164,14 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -7172,11 +7184,11 @@
       <c r="D38">
         <v>5645.74</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -7192,8 +7204,17 @@
       <c r="E39" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -7209,8 +7230,17 @@
       <c r="E40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="7">
+        <v>84513.33</v>
+      </c>
+      <c r="J40" s="7">
+        <v>71337.13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -7226,8 +7256,17 @@
       <c r="E41" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="7">
+        <v>196108.15999999997</v>
+      </c>
+      <c r="J41" s="7">
+        <v>171328.78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -7243,8 +7282,17 @@
       <c r="E42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" s="7">
+        <v>201476.59</v>
+      </c>
+      <c r="J42" s="7">
+        <v>159945.74999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -7260,8 +7308,17 @@
       <c r="E43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="7">
+        <v>192480.64000000001</v>
+      </c>
+      <c r="J43" s="7">
+        <v>191253.72000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -7277,8 +7334,17 @@
       <c r="E44" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I44" s="7">
+        <v>99782.639999999985</v>
+      </c>
+      <c r="J44" s="7">
+        <v>86094.709999999977</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -7294,8 +7360,17 @@
       <c r="E45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="7">
+        <v>70233.09</v>
+      </c>
+      <c r="J45" s="7">
+        <v>57360.239999999991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -7311,8 +7386,17 @@
       <c r="E46" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="7">
+        <v>844594.45</v>
+      </c>
+      <c r="J46" s="7">
+        <v>737320.33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -7329,7 +7413,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -9240,8 +9324,8 @@
       <c r="B160">
         <v>2012</v>
       </c>
-      <c r="C160" s="3">
-        <f>MEDIAN(C1:C159, C161:C175, C177:C200)</f>
+      <c r="C160" s="1">
+        <f>MEDIAN(C2:C159, C161:C175, C177:C200)</f>
         <v>4266.46</v>
       </c>
       <c r="D160">
@@ -9513,7 +9597,7 @@
       <c r="B176">
         <v>2006</v>
       </c>
-      <c r="C176" s="3">
+      <c r="C176" s="1">
         <f>MEDIAN(C1:C175, C177:C200)</f>
         <v>4266.46</v>
       </c>
@@ -9935,379 +10019,6 @@
   </sheetData>
   <autoFilter ref="A1:E200" xr:uid="{8E6B085B-3A2F-48B8-98A7-3DB0C05C4D54}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2852C2C2-C830-4FC6-B729-3DEF3CE72C37}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <v>4274.9088557213954</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3">
-        <v>3700.242437810944</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>150.17447328558475</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
-        <v>140.07511131337847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5">
-        <v>4270.3999999999996</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5">
-        <v>3688.09</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6">
-        <v>4270.3999999999996</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6">
-        <v>5484.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7">
-        <v>2129.0906175518139</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7">
-        <v>1985.9074496815124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8">
-        <v>4533026.8577471636</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8">
-        <v>3943828.3987005283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9">
-        <v>-1.1770229622353343</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>-1.2807132903812986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10">
-        <v>4.4199386440665116E-2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10">
-        <v>-4.2883051241800238E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>7441.8200000000006</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11">
-        <v>6516.5300000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12">
-        <v>534.74</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12">
-        <v>464.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13">
-        <v>7976.56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13">
-        <v>6981.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14">
-        <v>859256.68000000052</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14">
-        <v>743748.72999999975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15">
-        <v>201</v>
-      </c>
-      <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1">
-        <v>296.12847675805602</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="1">
-        <v>276.21358302395049</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3850309-2DD6-4BF3-963C-34EAA9BB6442}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="36" width="8" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="7" bestFit="1" customWidth="1"/>
-    <col min="38" max="100" width="8" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="9" bestFit="1" customWidth="1"/>
-    <col min="102" max="193" width="8" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="7" bestFit="1" customWidth="1"/>
-    <col min="195" max="196" width="8" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="9" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="8" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="10.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>84513.33</v>
-      </c>
-      <c r="C4">
-        <v>71337.13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>204032.85999999996</v>
-      </c>
-      <c r="C5">
-        <v>176813.47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>201476.59</v>
-      </c>
-      <c r="C6">
-        <v>159945.74999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>199214.23000000004</v>
-      </c>
-      <c r="C7">
-        <v>192197.43000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>99786.579999999973</v>
-      </c>
-      <c r="C8">
-        <v>86094.709999999977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>70233.09</v>
-      </c>
-      <c r="C9">
-        <v>57360.239999999991</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10">
-        <v>859256.67999999993</v>
-      </c>
-      <c r="C10">
-        <v>743748.73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A3525F3-71D0-4F37-BD1B-DFF97D775E6A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>